--- a/AutoTestSystem/Config/Snowbird.xlsx
+++ b/AutoTestSystem/Config/Snowbird.xlsx
@@ -9,25 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7800" tabRatio="501" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7800" tabRatio="501" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="MBLT (2)" sheetId="90" r:id="rId1"/>
+    <sheet name="MBLT (New)" sheetId="90" r:id="rId1"/>
     <sheet name="MBLT" sheetId="62" r:id="rId2"/>
-    <sheet name="MBFT" sheetId="89" r:id="rId3"/>
-    <sheet name="SRF" sheetId="66" r:id="rId4"/>
-    <sheet name="SFT" sheetId="69" r:id="rId5"/>
-    <sheet name="RTT" sheetId="59" r:id="rId6"/>
-    <sheet name="CCT" sheetId="15" r:id="rId7"/>
+    <sheet name="BURNIN" sheetId="91" r:id="rId3"/>
+    <sheet name="MBFT" sheetId="89" r:id="rId4"/>
+    <sheet name="SRF" sheetId="66" r:id="rId5"/>
+    <sheet name="SFT" sheetId="69" r:id="rId6"/>
+    <sheet name="RTT" sheetId="59" r:id="rId7"/>
+    <sheet name="BURNIN (New)" sheetId="92" r:id="rId8"/>
+    <sheet name="CCT" sheetId="15" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">CCT!$A$1:$X$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MBFT!$A$1:$Y$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BURNIN!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'BURNIN (New)'!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CCT!$A$1:$X$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MBFT!$A$1:$Y$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MBLT!$A$1:$X$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MBLT (2)'!$A$1:$X$73</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RTT!$A$1:$X$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SFT!$A$1:$Y$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SRF!$A$1:$X$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MBLT (New)'!$A$1:$X$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">RTT!$A$1:$X$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">SFT!$A$1:$Y$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SRF!$A$1:$X$151</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,8 +42,80 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Failure to continue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Failure to continue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7389" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8735" uniqueCount="1741">
   <si>
     <t>SeqName</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -5723,13 +5799,658 @@
   </si>
   <si>
     <t>WIFI_RX_PER_F5885_BW20_P-93_C1</t>
+  </si>
+  <si>
+    <t>SeqName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EeroName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestKeyword</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RetryTimes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeOut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubStr1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubStr2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IfElse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComdSend</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectStr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckStr1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckStr2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES_var</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecStatic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifySFIS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckEeroTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERIFYSFIS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckEeroTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.2: ShopFloor.WrongStation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkroute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkroute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.5: ShopFloor.Repair
+15.1: ShopFloor.Communication
+15.2: ShopFloor.WrongStation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckEeroABA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckEeroABA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9: ShopFloor.ABXRetestError</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCsnErroMessage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERIFYSFIS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCsnErroMessage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.1: ShopFloor.Communication</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PingDUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PingDUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUT_PING</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PingDUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1: Equipment.DUT.Ping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelnetDUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitForTelnet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUT_TELNET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3: Network.Telnet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>root@OpenWrt:/#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18: Device.TemperatureSensor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerCycleTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER_CYCLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3: Equipment.PowerSwitch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUT_TELNET_POWER_CYCLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3: Network.Telnet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMStressTestStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8: Device.RAM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>For(6)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreadSleep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat RAMStressTestORT.log | grep Status:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: PASS - please verify no corrected errors</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowLogAfterFail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8: Device.RAM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>logread | grep stressapptest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat RAMStressTestORT.log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPUStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPUStressTesttStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7: Device.CPU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat CPUStressTestORT.log</t>
+  </si>
+  <si>
+    <t>successful run completed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetIPAddress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set ipaddr_env</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET_IP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.9: Linux.SetIPAdress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>luxsetip 192.168.1.101 255.255.255.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>root@OpenWrt:/#</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHY_Temperature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /sys/class/thermal/thermal_zone3/temp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHYTemperatureCheck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHYTemperatureCheckAfterDutytest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi 2.4G/5G 50% DutyOn
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>myftm -J -i wifi0 -I 0 --rateBw 31  -M 3 -r 24 -f 2442 -p 18 -a 3 --nss 1 --gI 50 -z 1 -X 00:12:13:14:15:16 -Y 00:22:23:24:25:26 -N 00:32:33:34:35:36 --dutycl 54 -t 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">myftm -J -i wifi1 -I 0 --rateBw 33  -M 13 -r 24 -f 5570 -p 22 -a 3 --nss 1 --gI 50 -z 1 -X 00:12:13:14:15:16 -Y 00:22:23:24:25:26 -N 00:32:33:34:35:36 --dutycl 54 -t 2 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_2.4G_Duty_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_5G_Duty_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_5G_Duty_On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iperf3 -c 192.168.1.1 -i1 -t10 -O2 -P8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iperf3 -c 192.168.1.1 -i1 -t10 -O2 -P8 -R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5GethernetThroughputTest
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_TX_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH_SPEED_RX_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stress -c 4 -t 1500 &gt; CPUStressTestORT.log 2&gt;&amp;1 &amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHYTemperatureCheckAfterStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stressapptest -M 1300 -s 1500 -m 4 -W &gt; RAMStressTestORT.log 2&gt;&amp;1 &amp;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHYTemperatureCheckAfterRAMStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi 2.4G/5G 50% DutyOff
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_2.4G_Duty_Off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_5G_Duty_Off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">myftm -J -i wifi0 -I 0 --rateBw 31  -M 3 -r 24 -f 2442 -p 18 -a 3 --nss 1 --gI 50 -z 1 -X 00:12:13:14:15:16 -Y 00:22:23:24:25:26 -N 00:32:33:34:35:36 --dutycl 54 -t 0 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">myftm -J -i wifi1 -I 0 --rateBw 33  -M 13 -r 24 -f 5570 -p 22 -a 3 --nss 1 --gI 50 -z 1 -X 00:12:13:14:15:16 -Y 00:22:23:24:25:26 -N 00:32:33:34:35:36 --dutycl 54 -t 0 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>poeDot3af</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHY_TemperatureAfterDutytest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHYTemperatureCheckAfterThroughputTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHY_TemperatureAfterThroughputTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_STRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHY_TemperatureAfterStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAM_STRESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU/PHY_TemperatureAfterRAMStressTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE_disable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerCycleTest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByPassFail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByPassFail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="59">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6150,6 +6871,31 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="52">
     <fill>
@@ -6446,7 +7192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -6820,6 +7566,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6966,7 +7723,7 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="409">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8110,6 +8867,138 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="37" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20% - 着色 1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -8454,10 +9343,10 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P126" sqref="P126"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.46484375" defaultRowHeight="13.9"/>
@@ -14785,10 +15674,10 @@
   <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD23"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.46484375" defaultRowHeight="13.9"/>
@@ -14886,7 +15775,7 @@
         <v>291</v>
       </c>
       <c r="V1" s="110" t="s">
-        <v>292</v>
+        <v>1739</v>
       </c>
       <c r="W1" s="110" t="s">
         <v>492</v>
@@ -19040,6 +19929,4411 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.265625" defaultRowHeight="15.4"/>
+  <cols>
+    <col min="1" max="25" width="20.265625" style="441"/>
+    <col min="26" max="16384" width="20.265625" style="428"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="413" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="409" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1" s="410" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1" s="410" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1" s="410" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E1" s="410" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F1" s="411" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1" s="410" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H1" s="410" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I1" s="412" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J1" s="412" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K1" s="412" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L1" s="412" t="s">
+        <v>1592</v>
+      </c>
+      <c r="M1" s="412" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N1" s="410" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O1" s="410" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P1" s="410" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q1" s="410" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R1" s="410" t="s">
+        <v>1598</v>
+      </c>
+      <c r="S1" s="410" t="s">
+        <v>1599</v>
+      </c>
+      <c r="T1" s="410" t="s">
+        <v>1600</v>
+      </c>
+      <c r="U1" s="410" t="s">
+        <v>1601</v>
+      </c>
+      <c r="V1" s="410" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W1" s="410" t="s">
+        <v>1603</v>
+      </c>
+      <c r="X1" s="410" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Y1" s="410" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="419" customFormat="1">
+      <c r="A2" s="414" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B2" s="164" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C2" s="415" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2" s="415"/>
+      <c r="E2" s="416" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F2" s="417" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G2" s="418" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H2" s="418" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I2" s="418"/>
+      <c r="J2" s="418"/>
+      <c r="K2" s="418"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="418"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="418"/>
+      <c r="P2" s="418"/>
+      <c r="Q2" s="418"/>
+      <c r="R2" s="418"/>
+      <c r="S2" s="418"/>
+      <c r="T2" s="418"/>
+      <c r="U2" s="418"/>
+      <c r="V2" s="418"/>
+      <c r="W2" s="418"/>
+      <c r="X2" s="418"/>
+      <c r="Y2" s="418"/>
+    </row>
+    <row r="3" spans="1:26" s="419" customFormat="1" ht="46.15">
+      <c r="A3" s="420"/>
+      <c r="B3" s="164" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C3" s="415" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="164"/>
+      <c r="E3" s="421" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F3" s="417" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G3" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H3" s="418" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I3" s="418"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="418"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="418"/>
+      <c r="P3" s="418"/>
+      <c r="Q3" s="418"/>
+      <c r="R3" s="418"/>
+      <c r="S3" s="418"/>
+      <c r="T3" s="418"/>
+      <c r="U3" s="418"/>
+      <c r="V3" s="418"/>
+      <c r="W3" s="418"/>
+      <c r="X3" s="418"/>
+      <c r="Y3" s="418"/>
+    </row>
+    <row r="4" spans="1:26" s="419" customFormat="1">
+      <c r="A4" s="420"/>
+      <c r="B4" s="164" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C4" s="415" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="164"/>
+      <c r="E4" s="421" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F4" s="417" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G4" s="418" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H4" s="418" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I4" s="418"/>
+      <c r="J4" s="418"/>
+      <c r="K4" s="418"/>
+      <c r="L4" s="418"/>
+      <c r="M4" s="418"/>
+      <c r="N4" s="418"/>
+      <c r="O4" s="418"/>
+      <c r="P4" s="418"/>
+      <c r="Q4" s="418"/>
+      <c r="R4" s="418"/>
+      <c r="S4" s="418"/>
+      <c r="T4" s="418"/>
+      <c r="U4" s="418"/>
+      <c r="V4" s="418"/>
+      <c r="W4" s="418"/>
+      <c r="X4" s="418"/>
+      <c r="Y4" s="418"/>
+    </row>
+    <row r="5" spans="1:26" s="422" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="444"/>
+      <c r="B5" s="164" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C5" s="415" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E5" s="421" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F5" s="417" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G5" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H5" s="418" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I5" s="418"/>
+      <c r="J5" s="418"/>
+      <c r="K5" s="418"/>
+      <c r="L5" s="418"/>
+      <c r="M5" s="418"/>
+      <c r="N5" s="418"/>
+      <c r="O5" s="418"/>
+      <c r="P5" s="418"/>
+      <c r="Q5" s="418"/>
+      <c r="R5" s="418"/>
+      <c r="S5" s="418"/>
+      <c r="T5" s="418"/>
+      <c r="U5" s="418"/>
+      <c r="V5" s="418"/>
+      <c r="W5" s="418"/>
+      <c r="X5" s="418"/>
+      <c r="Y5" s="418"/>
+    </row>
+    <row r="6" spans="1:26" s="362" customFormat="1" ht="14.25">
+      <c r="A6" s="92" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="95" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="449"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="97" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O6" s="141"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+    </row>
+    <row r="7" spans="1:26" s="448" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="430"/>
+      <c r="B7" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D7" s="421"/>
+      <c r="E7" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F7" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G7" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H7" s="426" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I7" s="426"/>
+      <c r="J7" s="426"/>
+      <c r="K7" s="426"/>
+      <c r="L7" s="426"/>
+      <c r="M7" s="426"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="426"/>
+      <c r="P7" s="426"/>
+      <c r="Q7" s="426"/>
+      <c r="R7" s="426"/>
+      <c r="S7" s="426"/>
+      <c r="T7" s="426"/>
+      <c r="U7" s="426"/>
+      <c r="V7" s="426"/>
+      <c r="W7" s="426"/>
+      <c r="X7" s="427"/>
+      <c r="Y7" s="426"/>
+    </row>
+    <row r="8" spans="1:26" s="362" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="94" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="95" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="449"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="97" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O8" s="141"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+    </row>
+    <row r="9" spans="1:26" s="422" customFormat="1">
+      <c r="A9" s="414" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C9" s="415" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F9" s="417" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G9" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H9" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I9" s="418"/>
+      <c r="J9" s="418"/>
+      <c r="K9" s="418"/>
+      <c r="L9" s="418"/>
+      <c r="M9" s="418"/>
+      <c r="N9" s="418"/>
+      <c r="O9" s="418"/>
+      <c r="P9" s="418"/>
+      <c r="Q9" s="418"/>
+      <c r="R9" s="418"/>
+      <c r="S9" s="418"/>
+      <c r="T9" s="418"/>
+      <c r="U9" s="418"/>
+      <c r="V9" s="418"/>
+      <c r="W9" s="418"/>
+      <c r="X9" s="418"/>
+      <c r="Y9" s="418"/>
+    </row>
+    <row r="10" spans="1:26" s="422" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="420" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C10" s="415" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E10" s="164" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F10" s="417" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G10" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H10" s="418" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I10" s="418"/>
+      <c r="J10" s="418"/>
+      <c r="K10" s="418"/>
+      <c r="L10" s="418"/>
+      <c r="M10" s="418"/>
+      <c r="N10" s="418" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="418"/>
+      <c r="P10" s="418"/>
+      <c r="Q10" s="418"/>
+      <c r="R10" s="418"/>
+      <c r="S10" s="418"/>
+      <c r="T10" s="418"/>
+      <c r="U10" s="418"/>
+      <c r="V10" s="418"/>
+      <c r="W10" s="418"/>
+      <c r="X10" s="418"/>
+      <c r="Y10" s="418"/>
+    </row>
+    <row r="11" spans="1:26" s="22" customFormat="1" ht="14.25">
+      <c r="A11" s="92" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J11" s="90" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O11" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="90"/>
+    </row>
+    <row r="12" spans="1:26" s="22" customFormat="1" ht="28.5">
+      <c r="A12" s="93"/>
+      <c r="B12" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>935</v>
+      </c>
+      <c r="J12" s="90" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O12" s="133" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y12" s="90"/>
+    </row>
+    <row r="13" spans="1:26" s="22" customFormat="1" ht="14.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J13" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90" t="s">
+        <v>1556</v>
+      </c>
+      <c r="O13" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y13" s="90"/>
+    </row>
+    <row r="14" spans="1:26" s="22" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="446" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="446" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O14" s="90" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P14" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="97" t="s">
+        <v>1174</v>
+      </c>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" s="90"/>
+    </row>
+    <row r="15" spans="1:26" s="423" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="424" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B15" s="421" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C15" s="415" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D15" s="421" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E15" s="421" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F15" s="429" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G15" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H15" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I15" s="426"/>
+      <c r="J15" s="426"/>
+      <c r="K15" s="426"/>
+      <c r="L15" s="426"/>
+      <c r="M15" s="426"/>
+      <c r="N15" s="426" t="s">
+        <v>1726</v>
+      </c>
+      <c r="O15" s="426"/>
+      <c r="P15" s="426"/>
+      <c r="Q15" s="426"/>
+      <c r="R15" s="426"/>
+      <c r="S15" s="426"/>
+      <c r="T15" s="426"/>
+      <c r="U15" s="426"/>
+      <c r="V15" s="426"/>
+      <c r="W15" s="418"/>
+      <c r="X15" s="426"/>
+      <c r="Y15" s="426"/>
+    </row>
+    <row r="16" spans="1:26" s="423" customFormat="1">
+      <c r="A16" s="424" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B16" s="421" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C16" s="415" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D16" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E16" s="421" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F16" s="429" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G16" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H16" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I16" s="426"/>
+      <c r="J16" s="426"/>
+      <c r="K16" s="426"/>
+      <c r="L16" s="426"/>
+      <c r="M16" s="426"/>
+      <c r="N16" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O16" s="426"/>
+      <c r="P16" s="426"/>
+      <c r="Q16" s="426"/>
+      <c r="R16" s="426"/>
+      <c r="S16" s="426"/>
+      <c r="T16" s="426"/>
+      <c r="U16" s="426"/>
+      <c r="V16" s="426"/>
+      <c r="W16" s="418"/>
+      <c r="X16" s="426"/>
+      <c r="Y16" s="426"/>
+    </row>
+    <row r="17" spans="1:25" s="423" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="445" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B17" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C17" s="421" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D17" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E17" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F17" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G17" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H17" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I17" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J17" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K17" s="426"/>
+      <c r="L17" s="426"/>
+      <c r="M17" s="426"/>
+      <c r="N17" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O17" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P17" s="426"/>
+      <c r="Q17" s="426"/>
+      <c r="R17" s="426"/>
+      <c r="S17" s="426"/>
+      <c r="T17" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U17" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V17" s="426"/>
+      <c r="W17" s="418"/>
+      <c r="X17" s="426"/>
+      <c r="Y17" s="426"/>
+    </row>
+    <row r="18" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A18" s="445" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B18" s="445" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C18" s="421" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D18" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E18" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F18" s="429"/>
+      <c r="G18" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H18" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I18" s="426"/>
+      <c r="J18" s="426"/>
+      <c r="K18" s="426"/>
+      <c r="L18" s="426"/>
+      <c r="M18" s="426"/>
+      <c r="N18" s="426" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O18" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P18" s="426"/>
+      <c r="Q18" s="426"/>
+      <c r="R18" s="426"/>
+      <c r="S18" s="426"/>
+      <c r="T18" s="426"/>
+      <c r="U18" s="426"/>
+      <c r="V18" s="426"/>
+      <c r="W18" s="418"/>
+      <c r="X18" s="426"/>
+      <c r="Y18" s="426"/>
+    </row>
+    <row r="19" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A19" s="445"/>
+      <c r="B19" s="445" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C19" s="421" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D19" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E19" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F19" s="429"/>
+      <c r="G19" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H19" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I19" s="426"/>
+      <c r="J19" s="426"/>
+      <c r="K19" s="426"/>
+      <c r="L19" s="426"/>
+      <c r="M19" s="426"/>
+      <c r="N19" s="426" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O19" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P19" s="426"/>
+      <c r="Q19" s="426"/>
+      <c r="R19" s="426"/>
+      <c r="S19" s="426"/>
+      <c r="T19" s="426"/>
+      <c r="U19" s="426"/>
+      <c r="V19" s="426"/>
+      <c r="W19" s="418"/>
+      <c r="X19" s="426"/>
+      <c r="Y19" s="426"/>
+    </row>
+    <row r="20" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A20" s="445" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B20" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C20" s="421" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D20" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E20" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F20" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G20" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H20" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I20" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J20" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K20" s="426"/>
+      <c r="L20" s="426"/>
+      <c r="M20" s="426"/>
+      <c r="N20" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O20" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P20" s="426"/>
+      <c r="Q20" s="426"/>
+      <c r="R20" s="426"/>
+      <c r="S20" s="426"/>
+      <c r="T20" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U20" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V20" s="426"/>
+      <c r="W20" s="418"/>
+      <c r="X20" s="426"/>
+      <c r="Y20" s="426"/>
+    </row>
+    <row r="21" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B21" s="450" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C21" s="450" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J21" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O21" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T21" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U21" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V21" s="16"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="450"/>
+      <c r="Y21" s="450"/>
+    </row>
+    <row r="22" spans="1:25" s="262" customFormat="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="450" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C22" s="450" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J22" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O22" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T22" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U22" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V22" s="16"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="450"/>
+      <c r="Y22" s="450"/>
+    </row>
+    <row r="23" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B23" s="450" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C23" s="450" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J23" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O23" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T23" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U23" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="450"/>
+      <c r="Y23" s="450"/>
+    </row>
+    <row r="24" spans="1:25" s="262" customFormat="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="450" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C24" s="450" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J24" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O24" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T24" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U24" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V24" s="16"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="450"/>
+      <c r="Y24" s="450"/>
+    </row>
+    <row r="25" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B25" s="450" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C25" s="450" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J25" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O25" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T25" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U25" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V25" s="16"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="450"/>
+      <c r="Y25" s="450"/>
+    </row>
+    <row r="26" spans="1:25" s="262" customFormat="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="450" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C26" s="450" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J26" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O26" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T26" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U26" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V26" s="16"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="450"/>
+      <c r="Y26" s="450"/>
+    </row>
+    <row r="27" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B27" s="450" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C27" s="450" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J27" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O27" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T27" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U27" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V27" s="16"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="450"/>
+      <c r="Y27" s="450"/>
+    </row>
+    <row r="28" spans="1:25" s="262" customFormat="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="450" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C28" s="450" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J28" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O28" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T28" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U28" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="450"/>
+      <c r="Y28" s="450"/>
+    </row>
+    <row r="29" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B29" s="450" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C29" s="450" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J29" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O29" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T29" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U29" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="450"/>
+      <c r="Y29" s="450"/>
+    </row>
+    <row r="30" spans="1:25" s="262" customFormat="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="450" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C30" s="450" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J30" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O30" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T30" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U30" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V30" s="16"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="450"/>
+      <c r="Y30" s="450"/>
+    </row>
+    <row r="31" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B31" s="450" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C31" s="450" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J31" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O31" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T31" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U31" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="450"/>
+      <c r="Y31" s="450"/>
+    </row>
+    <row r="32" spans="1:25" s="262" customFormat="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="450" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C32" s="450" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J32" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O32" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T32" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U32" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V32" s="16"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="450"/>
+      <c r="Y32" s="450"/>
+    </row>
+    <row r="33" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B33" s="450" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C33" s="450" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J33" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O33" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T33" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U33" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V33" s="16"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="450"/>
+      <c r="Y33" s="450"/>
+    </row>
+    <row r="34" spans="1:25" s="262" customFormat="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="450" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C34" s="450" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J34" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O34" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T34" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U34" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V34" s="16"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="450"/>
+      <c r="Y34" s="450"/>
+    </row>
+    <row r="35" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B35" s="450" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C35" s="450" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I35" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J35" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O35" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R35" s="15"/>
+      <c r="S35" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T35" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U35" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V35" s="16"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="450"/>
+      <c r="Y35" s="450"/>
+    </row>
+    <row r="36" spans="1:25" s="262" customFormat="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="450" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C36" s="450" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J36" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O36" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R36" s="15"/>
+      <c r="S36" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T36" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U36" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V36" s="16"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="450"/>
+      <c r="Y36" s="450"/>
+    </row>
+    <row r="37" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B37" s="450" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C37" s="450" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I37" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J37" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O37" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R37" s="15"/>
+      <c r="S37" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T37" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U37" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V37" s="16"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="450"/>
+      <c r="Y37" s="450"/>
+    </row>
+    <row r="38" spans="1:25" s="262" customFormat="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="450" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C38" s="450" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J38" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O38" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="S38" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T38" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U38" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V38" s="16"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="450"/>
+      <c r="Y38" s="450"/>
+    </row>
+    <row r="39" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B39" s="450" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C39" s="450" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J39" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O39" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R39" s="15"/>
+      <c r="S39" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T39" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U39" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V39" s="16"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="450"/>
+      <c r="Y39" s="450"/>
+    </row>
+    <row r="40" spans="1:25" s="262" customFormat="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="450" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C40" s="450" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J40" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O40" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T40" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U40" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V40" s="16"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="450"/>
+      <c r="Y40" s="450"/>
+    </row>
+    <row r="41" spans="1:25" s="423" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A41" s="445" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B41" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C41" s="421" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D41" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E41" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F41" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G41" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H41" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I41" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J41" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K41" s="426"/>
+      <c r="L41" s="426"/>
+      <c r="M41" s="426"/>
+      <c r="N41" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O41" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P41" s="426"/>
+      <c r="Q41" s="426"/>
+      <c r="R41" s="426"/>
+      <c r="S41" s="426"/>
+      <c r="T41" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U41" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V41" s="426"/>
+      <c r="W41" s="418"/>
+      <c r="X41" s="426"/>
+      <c r="Y41" s="426"/>
+    </row>
+    <row r="42" spans="1:25" s="448" customFormat="1">
+      <c r="A42" s="424" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B42" s="421" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C42" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D42" s="421"/>
+      <c r="E42" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F42" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G42" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H42" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I42" s="426"/>
+      <c r="J42" s="426"/>
+      <c r="K42" s="426"/>
+      <c r="L42" s="426"/>
+      <c r="M42" s="426"/>
+      <c r="N42" s="426" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O42" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P42" s="426"/>
+      <c r="Q42" s="426"/>
+      <c r="R42" s="426"/>
+      <c r="S42" s="426"/>
+      <c r="T42" s="426"/>
+      <c r="U42" s="426"/>
+      <c r="V42" s="426"/>
+      <c r="W42" s="426"/>
+      <c r="X42" s="427"/>
+      <c r="Y42" s="426"/>
+    </row>
+    <row r="43" spans="1:25" s="448" customFormat="1">
+      <c r="A43" s="430"/>
+      <c r="B43" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C43" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D43" s="421"/>
+      <c r="E43" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F43" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G43" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H43" s="426" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I43" s="426"/>
+      <c r="J43" s="426"/>
+      <c r="K43" s="426"/>
+      <c r="L43" s="426"/>
+      <c r="M43" s="426"/>
+      <c r="N43" s="426"/>
+      <c r="O43" s="426"/>
+      <c r="P43" s="426"/>
+      <c r="Q43" s="426"/>
+      <c r="R43" s="426"/>
+      <c r="S43" s="426"/>
+      <c r="T43" s="426"/>
+      <c r="U43" s="426"/>
+      <c r="V43" s="426"/>
+      <c r="W43" s="426"/>
+      <c r="X43" s="427"/>
+      <c r="Y43" s="426"/>
+    </row>
+    <row r="44" spans="1:25" s="448" customFormat="1">
+      <c r="A44" s="430"/>
+      <c r="B44" s="421" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C44" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D44" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E44" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F44" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G44" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H44" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I44" s="426"/>
+      <c r="J44" s="426"/>
+      <c r="K44" s="426"/>
+      <c r="L44" s="426"/>
+      <c r="M44" s="426"/>
+      <c r="N44" s="426" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O44" s="426" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P44" s="426"/>
+      <c r="Q44" s="426"/>
+      <c r="R44" s="426"/>
+      <c r="S44" s="426"/>
+      <c r="T44" s="426"/>
+      <c r="U44" s="426"/>
+      <c r="V44" s="426"/>
+      <c r="W44" s="426"/>
+      <c r="X44" s="427"/>
+      <c r="Y44" s="426"/>
+    </row>
+    <row r="45" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A45" s="445" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B45" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C45" s="421" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D45" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E45" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F45" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G45" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H45" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I45" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J45" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K45" s="426"/>
+      <c r="L45" s="426"/>
+      <c r="M45" s="426"/>
+      <c r="N45" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O45" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P45" s="426"/>
+      <c r="Q45" s="426"/>
+      <c r="R45" s="426"/>
+      <c r="S45" s="426"/>
+      <c r="T45" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U45" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V45" s="426"/>
+      <c r="W45" s="418"/>
+      <c r="X45" s="426"/>
+      <c r="Y45" s="426"/>
+    </row>
+    <row r="46" spans="1:25" s="423" customFormat="1">
+      <c r="A46" s="430" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B46" s="421" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C46" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D46" s="421"/>
+      <c r="E46" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F46" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G46" s="426" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H46" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I46" s="426"/>
+      <c r="J46" s="426"/>
+      <c r="K46" s="426"/>
+      <c r="L46" s="426" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M46" s="426"/>
+      <c r="N46" s="426" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O46" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P46" s="426"/>
+      <c r="Q46" s="426"/>
+      <c r="R46" s="426"/>
+      <c r="S46" s="426"/>
+      <c r="T46" s="426"/>
+      <c r="U46" s="426"/>
+      <c r="V46" s="426"/>
+      <c r="W46" s="426"/>
+      <c r="X46" s="426"/>
+      <c r="Y46" s="426"/>
+    </row>
+    <row r="47" spans="1:25" s="423" customFormat="1">
+      <c r="A47" s="430"/>
+      <c r="B47" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C47" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D47" s="421"/>
+      <c r="E47" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F47" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G47" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H47" s="426" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I47" s="426"/>
+      <c r="J47" s="426"/>
+      <c r="K47" s="426"/>
+      <c r="L47" s="426"/>
+      <c r="M47" s="426"/>
+      <c r="N47" s="426"/>
+      <c r="O47" s="426"/>
+      <c r="P47" s="426"/>
+      <c r="Q47" s="426"/>
+      <c r="R47" s="426"/>
+      <c r="S47" s="426"/>
+      <c r="T47" s="426"/>
+      <c r="U47" s="426"/>
+      <c r="V47" s="426"/>
+      <c r="W47" s="426"/>
+      <c r="X47" s="426"/>
+      <c r="Y47" s="426"/>
+    </row>
+    <row r="48" spans="1:25" s="423" customFormat="1" ht="30.75">
+      <c r="A48" s="430"/>
+      <c r="B48" s="421" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C48" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D48" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E48" s="421" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F48" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G48" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H48" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I48" s="426"/>
+      <c r="J48" s="426"/>
+      <c r="K48" s="426" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L48" s="426"/>
+      <c r="M48" s="426"/>
+      <c r="N48" s="426" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O48" s="426" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P48" s="426"/>
+      <c r="Q48" s="426"/>
+      <c r="R48" s="426"/>
+      <c r="S48" s="426"/>
+      <c r="T48" s="426"/>
+      <c r="U48" s="426"/>
+      <c r="V48" s="426"/>
+      <c r="W48" s="426"/>
+      <c r="X48" s="427"/>
+      <c r="Y48" s="426"/>
+    </row>
+    <row r="49" spans="1:25" s="423" customFormat="1">
+      <c r="A49" s="430"/>
+      <c r="B49" s="421" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C49" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D49" s="421"/>
+      <c r="E49" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F49" s="425" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G49" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H49" s="426" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I49" s="426"/>
+      <c r="J49" s="426"/>
+      <c r="K49" s="426" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L49" s="426"/>
+      <c r="M49" s="426"/>
+      <c r="N49" s="426" t="s">
+        <v>1666</v>
+      </c>
+      <c r="O49" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P49" s="426"/>
+      <c r="Q49" s="426"/>
+      <c r="R49" s="426"/>
+      <c r="S49" s="426"/>
+      <c r="T49" s="426"/>
+      <c r="U49" s="426"/>
+      <c r="V49" s="426"/>
+      <c r="W49" s="426"/>
+      <c r="X49" s="427"/>
+      <c r="Y49" s="426"/>
+    </row>
+    <row r="50" spans="1:25" s="423" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A50" s="431"/>
+      <c r="B50" s="421" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C50" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D50" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E50" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F50" s="425" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G50" s="426" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H50" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I50" s="426"/>
+      <c r="J50" s="426"/>
+      <c r="K50" s="426" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L50" s="426"/>
+      <c r="M50" s="426"/>
+      <c r="N50" s="426" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O50" s="426" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P50" s="426"/>
+      <c r="Q50" s="426"/>
+      <c r="R50" s="426"/>
+      <c r="S50" s="426"/>
+      <c r="T50" s="426"/>
+      <c r="U50" s="426"/>
+      <c r="V50" s="426"/>
+      <c r="W50" s="426"/>
+      <c r="X50" s="427"/>
+      <c r="Y50" s="426"/>
+    </row>
+    <row r="51" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A51" s="445" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B51" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C51" s="421" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D51" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E51" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F51" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G51" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H51" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I51" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J51" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K51" s="426"/>
+      <c r="L51" s="426"/>
+      <c r="M51" s="426"/>
+      <c r="N51" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O51" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P51" s="426"/>
+      <c r="Q51" s="426"/>
+      <c r="R51" s="426"/>
+      <c r="S51" s="426"/>
+      <c r="T51" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U51" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V51" s="426"/>
+      <c r="W51" s="418"/>
+      <c r="X51" s="426"/>
+      <c r="Y51" s="426"/>
+    </row>
+    <row r="52" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A52" s="445" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B52" s="445" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C52" s="445" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D52" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E52" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F52" s="429"/>
+      <c r="G52" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H52" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I52" s="426"/>
+      <c r="J52" s="426"/>
+      <c r="K52" s="426"/>
+      <c r="L52" s="426"/>
+      <c r="M52" s="426"/>
+      <c r="N52" s="426" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O52" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P52" s="426"/>
+      <c r="Q52" s="426"/>
+      <c r="R52" s="426"/>
+      <c r="S52" s="426"/>
+      <c r="T52" s="426"/>
+      <c r="U52" s="426"/>
+      <c r="V52" s="426"/>
+      <c r="W52" s="418"/>
+      <c r="X52" s="426"/>
+      <c r="Y52" s="426"/>
+    </row>
+    <row r="53" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A53" s="445"/>
+      <c r="B53" s="445" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C53" s="445" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D53" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E53" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F53" s="429"/>
+      <c r="G53" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H53" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I53" s="426"/>
+      <c r="J53" s="426"/>
+      <c r="K53" s="426"/>
+      <c r="L53" s="426"/>
+      <c r="M53" s="426"/>
+      <c r="N53" s="426" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O53" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P53" s="426"/>
+      <c r="Q53" s="426"/>
+      <c r="R53" s="426"/>
+      <c r="S53" s="426"/>
+      <c r="T53" s="426"/>
+      <c r="U53" s="426"/>
+      <c r="V53" s="426"/>
+      <c r="W53" s="418"/>
+      <c r="X53" s="426"/>
+      <c r="Y53" s="426"/>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A54" s="432" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B54" s="433" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C54" s="433" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D54" s="433" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E54" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F54" s="429" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G54" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H54" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I54" s="426"/>
+      <c r="J54" s="426"/>
+      <c r="K54" s="426"/>
+      <c r="L54" s="426"/>
+      <c r="M54" s="426"/>
+      <c r="N54" s="426" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O54" s="426" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P54" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q54" s="426"/>
+      <c r="R54" s="426"/>
+      <c r="S54" s="426"/>
+      <c r="T54" s="426"/>
+      <c r="U54" s="426"/>
+      <c r="V54" s="426"/>
+      <c r="W54" s="418"/>
+      <c r="X54" s="426"/>
+      <c r="Y54" s="426"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="434"/>
+      <c r="B55" s="435"/>
+      <c r="C55" s="433"/>
+      <c r="D55" s="433"/>
+      <c r="E55" s="433"/>
+      <c r="F55" s="429"/>
+      <c r="G55" s="426"/>
+      <c r="H55" s="426"/>
+      <c r="I55" s="426"/>
+      <c r="J55" s="426"/>
+      <c r="K55" s="426"/>
+      <c r="L55" s="426"/>
+      <c r="M55" s="426"/>
+      <c r="N55" s="426"/>
+      <c r="O55" s="426"/>
+      <c r="P55" s="426"/>
+      <c r="Q55" s="426"/>
+      <c r="R55" s="426"/>
+      <c r="S55" s="426"/>
+      <c r="T55" s="426"/>
+      <c r="U55" s="426"/>
+      <c r="V55" s="426"/>
+      <c r="W55" s="426"/>
+      <c r="X55" s="426"/>
+      <c r="Y55" s="426"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="436"/>
+      <c r="B56" s="436"/>
+      <c r="C56" s="421"/>
+      <c r="D56" s="421"/>
+      <c r="E56" s="421"/>
+      <c r="F56" s="429"/>
+      <c r="G56" s="426"/>
+      <c r="H56" s="426"/>
+      <c r="I56" s="426"/>
+      <c r="J56" s="426"/>
+      <c r="K56" s="426"/>
+      <c r="L56" s="426"/>
+      <c r="M56" s="426"/>
+      <c r="N56" s="426"/>
+      <c r="O56" s="426"/>
+      <c r="P56" s="426"/>
+      <c r="Q56" s="426"/>
+      <c r="R56" s="426"/>
+      <c r="S56" s="426"/>
+      <c r="T56" s="426"/>
+      <c r="U56" s="426"/>
+      <c r="V56" s="426"/>
+      <c r="W56" s="426"/>
+      <c r="X56" s="426"/>
+      <c r="Y56" s="426"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="436"/>
+      <c r="B57" s="435"/>
+      <c r="C57" s="433"/>
+      <c r="D57" s="433"/>
+      <c r="E57" s="433"/>
+      <c r="F57" s="429"/>
+      <c r="G57" s="426"/>
+      <c r="H57" s="426"/>
+      <c r="I57" s="426"/>
+      <c r="J57" s="426"/>
+      <c r="K57" s="426"/>
+      <c r="L57" s="426"/>
+      <c r="M57" s="426"/>
+      <c r="N57" s="426"/>
+      <c r="O57" s="426"/>
+      <c r="P57" s="426"/>
+      <c r="Q57" s="426"/>
+      <c r="R57" s="426"/>
+      <c r="S57" s="426"/>
+      <c r="T57" s="426"/>
+      <c r="U57" s="426"/>
+      <c r="V57" s="426"/>
+      <c r="W57" s="426"/>
+      <c r="X57" s="426"/>
+      <c r="Y57" s="437"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="436"/>
+      <c r="B58" s="436"/>
+      <c r="C58" s="421"/>
+      <c r="D58" s="421"/>
+      <c r="E58" s="421"/>
+      <c r="F58" s="429"/>
+      <c r="G58" s="426"/>
+      <c r="H58" s="426"/>
+      <c r="I58" s="426"/>
+      <c r="J58" s="426"/>
+      <c r="K58" s="426"/>
+      <c r="L58" s="426"/>
+      <c r="M58" s="426"/>
+      <c r="N58" s="426"/>
+      <c r="O58" s="426"/>
+      <c r="P58" s="426"/>
+      <c r="Q58" s="426"/>
+      <c r="R58" s="426"/>
+      <c r="S58" s="426"/>
+      <c r="T58" s="426"/>
+      <c r="U58" s="426"/>
+      <c r="V58" s="426"/>
+      <c r="W58" s="426"/>
+      <c r="X58" s="426"/>
+      <c r="Y58" s="437"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="436"/>
+      <c r="B59" s="436"/>
+      <c r="C59" s="421"/>
+      <c r="D59" s="421"/>
+      <c r="E59" s="421"/>
+      <c r="F59" s="429"/>
+      <c r="G59" s="426"/>
+      <c r="H59" s="426"/>
+      <c r="I59" s="426"/>
+      <c r="J59" s="426"/>
+      <c r="K59" s="426"/>
+      <c r="L59" s="426"/>
+      <c r="M59" s="426"/>
+      <c r="N59" s="426"/>
+      <c r="O59" s="426"/>
+      <c r="P59" s="426"/>
+      <c r="Q59" s="426"/>
+      <c r="R59" s="426"/>
+      <c r="S59" s="426"/>
+      <c r="T59" s="426"/>
+      <c r="U59" s="426"/>
+      <c r="V59" s="426"/>
+      <c r="W59" s="426"/>
+      <c r="X59" s="426"/>
+      <c r="Y59" s="437"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="436"/>
+      <c r="B60" s="436"/>
+      <c r="C60" s="421"/>
+      <c r="D60" s="421"/>
+      <c r="E60" s="421"/>
+      <c r="F60" s="429"/>
+      <c r="G60" s="426"/>
+      <c r="H60" s="426"/>
+      <c r="I60" s="426"/>
+      <c r="J60" s="426"/>
+      <c r="K60" s="426"/>
+      <c r="L60" s="426"/>
+      <c r="M60" s="426"/>
+      <c r="N60" s="426"/>
+      <c r="O60" s="426"/>
+      <c r="P60" s="426"/>
+      <c r="Q60" s="426"/>
+      <c r="R60" s="426"/>
+      <c r="S60" s="426"/>
+      <c r="T60" s="426"/>
+      <c r="U60" s="426"/>
+      <c r="V60" s="426"/>
+      <c r="W60" s="426"/>
+      <c r="X60" s="426"/>
+      <c r="Y60" s="437"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="436"/>
+      <c r="B61" s="436"/>
+      <c r="C61" s="421"/>
+      <c r="D61" s="421"/>
+      <c r="E61" s="421"/>
+      <c r="F61" s="429"/>
+      <c r="G61" s="426"/>
+      <c r="H61" s="426"/>
+      <c r="I61" s="426"/>
+      <c r="J61" s="426"/>
+      <c r="K61" s="426"/>
+      <c r="L61" s="426"/>
+      <c r="M61" s="426"/>
+      <c r="N61" s="426"/>
+      <c r="O61" s="426"/>
+      <c r="P61" s="426"/>
+      <c r="Q61" s="426"/>
+      <c r="R61" s="426"/>
+      <c r="S61" s="426"/>
+      <c r="T61" s="426"/>
+      <c r="U61" s="426"/>
+      <c r="V61" s="426"/>
+      <c r="W61" s="426"/>
+      <c r="X61" s="426"/>
+      <c r="Y61" s="437"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="436"/>
+      <c r="B62" s="436"/>
+      <c r="C62" s="421"/>
+      <c r="D62" s="421"/>
+      <c r="E62" s="421"/>
+      <c r="F62" s="429"/>
+      <c r="G62" s="426"/>
+      <c r="H62" s="426"/>
+      <c r="I62" s="426"/>
+      <c r="J62" s="426"/>
+      <c r="K62" s="426"/>
+      <c r="L62" s="426"/>
+      <c r="M62" s="426"/>
+      <c r="N62" s="426"/>
+      <c r="O62" s="426"/>
+      <c r="P62" s="426"/>
+      <c r="Q62" s="426"/>
+      <c r="R62" s="426"/>
+      <c r="S62" s="426"/>
+      <c r="T62" s="426"/>
+      <c r="U62" s="426"/>
+      <c r="V62" s="426"/>
+      <c r="W62" s="426"/>
+      <c r="X62" s="426"/>
+      <c r="Y62" s="437"/>
+    </row>
+    <row r="63" spans="1:25" s="439" customFormat="1">
+      <c r="A63" s="436"/>
+      <c r="B63" s="436"/>
+      <c r="C63" s="421"/>
+      <c r="D63" s="421"/>
+      <c r="E63" s="421"/>
+      <c r="F63" s="438"/>
+      <c r="G63" s="426"/>
+      <c r="H63" s="426"/>
+      <c r="I63" s="426"/>
+      <c r="J63" s="426"/>
+      <c r="K63" s="426"/>
+      <c r="L63" s="426"/>
+      <c r="M63" s="426"/>
+      <c r="N63" s="426"/>
+      <c r="O63" s="437"/>
+      <c r="P63" s="437"/>
+      <c r="Q63" s="437"/>
+      <c r="R63" s="437"/>
+      <c r="S63" s="426"/>
+      <c r="T63" s="426"/>
+      <c r="U63" s="426"/>
+      <c r="V63" s="426"/>
+      <c r="W63" s="426"/>
+      <c r="X63" s="426"/>
+      <c r="Y63" s="437"/>
+    </row>
+    <row r="64" spans="1:25" s="439" customFormat="1">
+      <c r="A64" s="436"/>
+      <c r="B64" s="435"/>
+      <c r="C64" s="433"/>
+      <c r="D64" s="433"/>
+      <c r="E64" s="433"/>
+      <c r="F64" s="438"/>
+      <c r="G64" s="426"/>
+      <c r="H64" s="426"/>
+      <c r="I64" s="426"/>
+      <c r="J64" s="426"/>
+      <c r="K64" s="426"/>
+      <c r="L64" s="426"/>
+      <c r="M64" s="426"/>
+      <c r="N64" s="426"/>
+      <c r="O64" s="437"/>
+      <c r="P64" s="437"/>
+      <c r="Q64" s="437"/>
+      <c r="R64" s="437"/>
+      <c r="S64" s="426"/>
+      <c r="T64" s="426"/>
+      <c r="U64" s="426"/>
+      <c r="V64" s="426"/>
+      <c r="W64" s="426"/>
+      <c r="X64" s="426"/>
+      <c r="Y64" s="426"/>
+    </row>
+    <row r="65" spans="1:25" s="439" customFormat="1">
+      <c r="A65" s="436"/>
+      <c r="B65" s="435"/>
+      <c r="C65" s="433"/>
+      <c r="D65" s="433"/>
+      <c r="E65" s="433"/>
+      <c r="F65" s="438"/>
+      <c r="G65" s="426"/>
+      <c r="H65" s="426"/>
+      <c r="I65" s="426"/>
+      <c r="J65" s="426"/>
+      <c r="K65" s="426"/>
+      <c r="L65" s="426"/>
+      <c r="M65" s="426"/>
+      <c r="N65" s="437"/>
+      <c r="O65" s="437"/>
+      <c r="P65" s="437"/>
+      <c r="Q65" s="437"/>
+      <c r="R65" s="437"/>
+      <c r="S65" s="426"/>
+      <c r="T65" s="426"/>
+      <c r="U65" s="426"/>
+      <c r="V65" s="426"/>
+      <c r="W65" s="426"/>
+      <c r="X65" s="426"/>
+      <c r="Y65" s="426"/>
+    </row>
+    <row r="66" spans="1:25" s="439" customFormat="1">
+      <c r="A66" s="436"/>
+      <c r="B66" s="435"/>
+      <c r="C66" s="433"/>
+      <c r="D66" s="433"/>
+      <c r="E66" s="433"/>
+      <c r="F66" s="438"/>
+      <c r="G66" s="426"/>
+      <c r="H66" s="426"/>
+      <c r="I66" s="426"/>
+      <c r="J66" s="426"/>
+      <c r="K66" s="426"/>
+      <c r="L66" s="426"/>
+      <c r="M66" s="426"/>
+      <c r="N66" s="437"/>
+      <c r="O66" s="437"/>
+      <c r="P66" s="437"/>
+      <c r="Q66" s="437"/>
+      <c r="R66" s="437"/>
+      <c r="S66" s="426"/>
+      <c r="T66" s="426"/>
+      <c r="U66" s="426"/>
+      <c r="V66" s="426"/>
+      <c r="W66" s="426"/>
+      <c r="X66" s="426"/>
+      <c r="Y66" s="426"/>
+    </row>
+    <row r="67" spans="1:25" s="439" customFormat="1">
+      <c r="A67" s="436"/>
+      <c r="B67" s="436"/>
+      <c r="C67" s="421"/>
+      <c r="D67" s="421"/>
+      <c r="E67" s="421"/>
+      <c r="F67" s="438"/>
+      <c r="G67" s="426"/>
+      <c r="H67" s="426"/>
+      <c r="I67" s="426"/>
+      <c r="J67" s="426"/>
+      <c r="K67" s="426"/>
+      <c r="L67" s="426"/>
+      <c r="M67" s="426"/>
+      <c r="N67" s="426"/>
+      <c r="O67" s="437"/>
+      <c r="P67" s="437"/>
+      <c r="Q67" s="437"/>
+      <c r="R67" s="437"/>
+      <c r="S67" s="426"/>
+      <c r="T67" s="426"/>
+      <c r="U67" s="426"/>
+      <c r="V67" s="426"/>
+      <c r="W67" s="426"/>
+      <c r="X67" s="426"/>
+      <c r="Y67" s="426"/>
+    </row>
+    <row r="68" spans="1:25" s="439" customFormat="1">
+      <c r="A68" s="436"/>
+      <c r="B68" s="436"/>
+      <c r="C68" s="421"/>
+      <c r="D68" s="421"/>
+      <c r="E68" s="421"/>
+      <c r="F68" s="438"/>
+      <c r="G68" s="426"/>
+      <c r="H68" s="426"/>
+      <c r="I68" s="426"/>
+      <c r="J68" s="426"/>
+      <c r="K68" s="426"/>
+      <c r="L68" s="426"/>
+      <c r="M68" s="426"/>
+      <c r="N68" s="426"/>
+      <c r="O68" s="437"/>
+      <c r="P68" s="437"/>
+      <c r="Q68" s="437"/>
+      <c r="R68" s="437"/>
+      <c r="S68" s="426"/>
+      <c r="T68" s="426"/>
+      <c r="U68" s="426"/>
+      <c r="V68" s="426"/>
+      <c r="W68" s="426"/>
+      <c r="X68" s="426"/>
+      <c r="Y68" s="426"/>
+    </row>
+    <row r="69" spans="1:25" s="439" customFormat="1">
+      <c r="A69" s="436"/>
+      <c r="B69" s="435"/>
+      <c r="C69" s="433"/>
+      <c r="D69" s="433"/>
+      <c r="E69" s="433"/>
+      <c r="F69" s="438"/>
+      <c r="G69" s="426"/>
+      <c r="H69" s="426"/>
+      <c r="I69" s="426"/>
+      <c r="J69" s="426"/>
+      <c r="K69" s="426"/>
+      <c r="L69" s="426"/>
+      <c r="M69" s="426"/>
+      <c r="N69" s="437"/>
+      <c r="O69" s="426"/>
+      <c r="P69" s="437"/>
+      <c r="Q69" s="437"/>
+      <c r="R69" s="437"/>
+      <c r="S69" s="426"/>
+      <c r="T69" s="426"/>
+      <c r="U69" s="426"/>
+      <c r="V69" s="426"/>
+      <c r="W69" s="426"/>
+      <c r="X69" s="426"/>
+      <c r="Y69" s="426"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="436"/>
+      <c r="B70" s="435"/>
+      <c r="C70" s="433"/>
+      <c r="D70" s="433"/>
+      <c r="E70" s="433"/>
+      <c r="F70" s="429"/>
+      <c r="G70" s="426"/>
+      <c r="H70" s="426"/>
+      <c r="I70" s="426"/>
+      <c r="J70" s="426"/>
+      <c r="K70" s="426"/>
+      <c r="L70" s="426"/>
+      <c r="M70" s="426"/>
+      <c r="N70" s="426"/>
+      <c r="O70" s="426"/>
+      <c r="P70" s="426"/>
+      <c r="Q70" s="426"/>
+      <c r="R70" s="426"/>
+      <c r="S70" s="426"/>
+      <c r="T70" s="426"/>
+      <c r="U70" s="426"/>
+      <c r="V70" s="426"/>
+      <c r="W70" s="426"/>
+      <c r="X70" s="426"/>
+      <c r="Y70" s="426"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="436"/>
+      <c r="B71" s="435"/>
+      <c r="C71" s="433"/>
+      <c r="D71" s="433"/>
+      <c r="E71" s="433"/>
+      <c r="F71" s="429"/>
+      <c r="G71" s="426"/>
+      <c r="H71" s="426"/>
+      <c r="I71" s="426"/>
+      <c r="J71" s="426"/>
+      <c r="K71" s="426"/>
+      <c r="L71" s="426"/>
+      <c r="M71" s="426"/>
+      <c r="N71" s="426"/>
+      <c r="O71" s="426"/>
+      <c r="P71" s="426"/>
+      <c r="Q71" s="426"/>
+      <c r="R71" s="426"/>
+      <c r="S71" s="426"/>
+      <c r="T71" s="426"/>
+      <c r="U71" s="426"/>
+      <c r="V71" s="426"/>
+      <c r="W71" s="426"/>
+      <c r="X71" s="426"/>
+      <c r="Y71" s="426"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="436"/>
+      <c r="B72" s="436"/>
+      <c r="C72" s="421"/>
+      <c r="D72" s="421"/>
+      <c r="E72" s="421"/>
+      <c r="F72" s="429"/>
+      <c r="G72" s="426"/>
+      <c r="H72" s="426"/>
+      <c r="I72" s="426"/>
+      <c r="J72" s="426"/>
+      <c r="K72" s="426"/>
+      <c r="L72" s="426"/>
+      <c r="M72" s="426"/>
+      <c r="N72" s="426"/>
+      <c r="O72" s="426"/>
+      <c r="P72" s="426"/>
+      <c r="Q72" s="426"/>
+      <c r="R72" s="426"/>
+      <c r="S72" s="426"/>
+      <c r="T72" s="426"/>
+      <c r="U72" s="426"/>
+      <c r="V72" s="426"/>
+      <c r="W72" s="426"/>
+      <c r="X72" s="426"/>
+      <c r="Y72" s="426"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="436"/>
+      <c r="B73" s="436"/>
+      <c r="C73" s="421"/>
+      <c r="D73" s="421"/>
+      <c r="E73" s="421"/>
+      <c r="F73" s="429"/>
+      <c r="G73" s="426"/>
+      <c r="H73" s="426"/>
+      <c r="I73" s="426"/>
+      <c r="J73" s="426"/>
+      <c r="K73" s="426"/>
+      <c r="L73" s="426"/>
+      <c r="M73" s="426"/>
+      <c r="N73" s="426"/>
+      <c r="O73" s="426"/>
+      <c r="P73" s="426"/>
+      <c r="Q73" s="426"/>
+      <c r="R73" s="426"/>
+      <c r="S73" s="426"/>
+      <c r="T73" s="426"/>
+      <c r="U73" s="426"/>
+      <c r="V73" s="426"/>
+      <c r="W73" s="426"/>
+      <c r="X73" s="426"/>
+      <c r="Y73" s="426"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="436"/>
+      <c r="B74" s="435"/>
+      <c r="C74" s="433"/>
+      <c r="D74" s="433"/>
+      <c r="E74" s="433"/>
+      <c r="F74" s="429"/>
+      <c r="G74" s="426"/>
+      <c r="H74" s="426"/>
+      <c r="I74" s="426"/>
+      <c r="J74" s="426"/>
+      <c r="K74" s="426"/>
+      <c r="L74" s="426"/>
+      <c r="M74" s="426"/>
+      <c r="N74" s="426"/>
+      <c r="O74" s="426"/>
+      <c r="P74" s="426"/>
+      <c r="Q74" s="426"/>
+      <c r="R74" s="426"/>
+      <c r="S74" s="426"/>
+      <c r="T74" s="426"/>
+      <c r="U74" s="426"/>
+      <c r="V74" s="426"/>
+      <c r="W74" s="426"/>
+      <c r="X74" s="426"/>
+      <c r="Y74" s="426"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="436"/>
+      <c r="B75" s="435"/>
+      <c r="C75" s="433"/>
+      <c r="D75" s="433"/>
+      <c r="E75" s="433"/>
+      <c r="F75" s="429"/>
+      <c r="G75" s="426"/>
+      <c r="H75" s="426"/>
+      <c r="I75" s="426"/>
+      <c r="J75" s="426"/>
+      <c r="K75" s="426"/>
+      <c r="L75" s="426"/>
+      <c r="M75" s="426"/>
+      <c r="N75" s="426"/>
+      <c r="O75" s="426"/>
+      <c r="P75" s="426"/>
+      <c r="Q75" s="426"/>
+      <c r="R75" s="426"/>
+      <c r="S75" s="426"/>
+      <c r="T75" s="426"/>
+      <c r="U75" s="426"/>
+      <c r="V75" s="426"/>
+      <c r="W75" s="426"/>
+      <c r="X75" s="426"/>
+      <c r="Y75" s="426"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="436"/>
+      <c r="B76" s="435"/>
+      <c r="C76" s="433"/>
+      <c r="D76" s="433"/>
+      <c r="E76" s="433"/>
+      <c r="F76" s="429"/>
+      <c r="G76" s="426"/>
+      <c r="H76" s="426"/>
+      <c r="I76" s="426"/>
+      <c r="J76" s="426"/>
+      <c r="K76" s="426"/>
+      <c r="L76" s="426"/>
+      <c r="M76" s="426"/>
+      <c r="N76" s="426"/>
+      <c r="O76" s="426"/>
+      <c r="P76" s="426"/>
+      <c r="Q76" s="426"/>
+      <c r="R76" s="426"/>
+      <c r="S76" s="426"/>
+      <c r="T76" s="426"/>
+      <c r="U76" s="426"/>
+      <c r="V76" s="426"/>
+      <c r="W76" s="426"/>
+      <c r="X76" s="426"/>
+      <c r="Y76" s="426"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="436"/>
+      <c r="B77" s="435"/>
+      <c r="C77" s="433"/>
+      <c r="D77" s="433"/>
+      <c r="E77" s="433"/>
+      <c r="F77" s="429"/>
+      <c r="G77" s="426"/>
+      <c r="H77" s="426"/>
+      <c r="I77" s="426"/>
+      <c r="J77" s="426"/>
+      <c r="K77" s="426"/>
+      <c r="L77" s="426"/>
+      <c r="M77" s="426"/>
+      <c r="N77" s="426"/>
+      <c r="O77" s="426"/>
+      <c r="P77" s="426"/>
+      <c r="Q77" s="426"/>
+      <c r="R77" s="426"/>
+      <c r="S77" s="426"/>
+      <c r="T77" s="426"/>
+      <c r="U77" s="426"/>
+      <c r="V77" s="426"/>
+      <c r="W77" s="426"/>
+      <c r="X77" s="426"/>
+      <c r="Y77" s="426"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="436"/>
+      <c r="B78" s="435"/>
+      <c r="C78" s="433"/>
+      <c r="D78" s="433"/>
+      <c r="E78" s="433"/>
+      <c r="F78" s="429"/>
+      <c r="G78" s="426"/>
+      <c r="H78" s="426"/>
+      <c r="I78" s="426"/>
+      <c r="J78" s="426"/>
+      <c r="K78" s="426"/>
+      <c r="L78" s="426"/>
+      <c r="M78" s="426"/>
+      <c r="N78" s="426"/>
+      <c r="O78" s="426"/>
+      <c r="P78" s="426"/>
+      <c r="Q78" s="426"/>
+      <c r="R78" s="426"/>
+      <c r="S78" s="426"/>
+      <c r="T78" s="426"/>
+      <c r="U78" s="426"/>
+      <c r="V78" s="426"/>
+      <c r="W78" s="426"/>
+      <c r="X78" s="426"/>
+      <c r="Y78" s="426"/>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="436"/>
+      <c r="B79" s="435"/>
+      <c r="C79" s="433"/>
+      <c r="D79" s="433"/>
+      <c r="E79" s="433"/>
+      <c r="F79" s="429"/>
+      <c r="G79" s="426"/>
+      <c r="H79" s="426"/>
+      <c r="I79" s="426"/>
+      <c r="J79" s="426"/>
+      <c r="K79" s="426"/>
+      <c r="L79" s="426"/>
+      <c r="M79" s="426"/>
+      <c r="N79" s="426"/>
+      <c r="O79" s="426"/>
+      <c r="P79" s="426"/>
+      <c r="Q79" s="426"/>
+      <c r="R79" s="426"/>
+      <c r="S79" s="426"/>
+      <c r="T79" s="426"/>
+      <c r="U79" s="426"/>
+      <c r="V79" s="426"/>
+      <c r="W79" s="426"/>
+      <c r="X79" s="426"/>
+      <c r="Y79" s="426"/>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="436"/>
+      <c r="B80" s="435"/>
+      <c r="C80" s="433"/>
+      <c r="D80" s="433"/>
+      <c r="E80" s="433"/>
+      <c r="F80" s="429"/>
+      <c r="G80" s="426"/>
+      <c r="H80" s="426"/>
+      <c r="I80" s="426"/>
+      <c r="J80" s="426"/>
+      <c r="K80" s="426"/>
+      <c r="L80" s="426"/>
+      <c r="M80" s="426"/>
+      <c r="N80" s="426"/>
+      <c r="O80" s="426"/>
+      <c r="P80" s="426"/>
+      <c r="Q80" s="426"/>
+      <c r="R80" s="426"/>
+      <c r="S80" s="426"/>
+      <c r="T80" s="426"/>
+      <c r="U80" s="426"/>
+      <c r="V80" s="426"/>
+      <c r="W80" s="426"/>
+      <c r="X80" s="426"/>
+      <c r="Y80" s="426"/>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="436"/>
+      <c r="B81" s="435"/>
+      <c r="C81" s="433"/>
+      <c r="D81" s="433"/>
+      <c r="E81" s="433"/>
+      <c r="F81" s="429"/>
+      <c r="G81" s="426"/>
+      <c r="H81" s="426"/>
+      <c r="I81" s="426"/>
+      <c r="J81" s="426"/>
+      <c r="K81" s="426"/>
+      <c r="L81" s="426"/>
+      <c r="M81" s="426"/>
+      <c r="N81" s="426"/>
+      <c r="O81" s="426"/>
+      <c r="P81" s="426"/>
+      <c r="Q81" s="426"/>
+      <c r="R81" s="426"/>
+      <c r="S81" s="426"/>
+      <c r="T81" s="426"/>
+      <c r="U81" s="426"/>
+      <c r="V81" s="426"/>
+      <c r="W81" s="426"/>
+      <c r="X81" s="426"/>
+      <c r="Y81" s="426"/>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="436"/>
+      <c r="B82" s="435"/>
+      <c r="C82" s="433"/>
+      <c r="D82" s="433"/>
+      <c r="E82" s="433"/>
+      <c r="F82" s="429"/>
+      <c r="G82" s="426"/>
+      <c r="H82" s="426"/>
+      <c r="I82" s="426"/>
+      <c r="J82" s="426"/>
+      <c r="K82" s="426"/>
+      <c r="L82" s="426"/>
+      <c r="M82" s="426"/>
+      <c r="N82" s="426"/>
+      <c r="O82" s="426"/>
+      <c r="P82" s="426"/>
+      <c r="Q82" s="426"/>
+      <c r="R82" s="426"/>
+      <c r="S82" s="426"/>
+      <c r="T82" s="426"/>
+      <c r="U82" s="426"/>
+      <c r="V82" s="426"/>
+      <c r="W82" s="426"/>
+      <c r="X82" s="426"/>
+      <c r="Y82" s="426"/>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="436"/>
+      <c r="B83" s="435"/>
+      <c r="C83" s="433"/>
+      <c r="D83" s="433"/>
+      <c r="E83" s="433"/>
+      <c r="F83" s="429"/>
+      <c r="G83" s="426"/>
+      <c r="H83" s="426"/>
+      <c r="I83" s="426"/>
+      <c r="J83" s="426"/>
+      <c r="K83" s="426"/>
+      <c r="L83" s="426"/>
+      <c r="M83" s="426"/>
+      <c r="N83" s="426"/>
+      <c r="O83" s="426"/>
+      <c r="P83" s="426"/>
+      <c r="Q83" s="426"/>
+      <c r="R83" s="426"/>
+      <c r="S83" s="426"/>
+      <c r="T83" s="426"/>
+      <c r="U83" s="426"/>
+      <c r="V83" s="426"/>
+      <c r="W83" s="426"/>
+      <c r="X83" s="426"/>
+      <c r="Y83" s="426"/>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="436"/>
+      <c r="B84" s="435"/>
+      <c r="C84" s="433"/>
+      <c r="D84" s="433"/>
+      <c r="E84" s="433"/>
+      <c r="F84" s="429"/>
+      <c r="G84" s="426"/>
+      <c r="H84" s="426"/>
+      <c r="I84" s="426"/>
+      <c r="J84" s="426"/>
+      <c r="K84" s="426"/>
+      <c r="L84" s="426"/>
+      <c r="M84" s="426"/>
+      <c r="N84" s="426"/>
+      <c r="O84" s="426"/>
+      <c r="P84" s="426"/>
+      <c r="Q84" s="426"/>
+      <c r="R84" s="426"/>
+      <c r="S84" s="426"/>
+      <c r="T84" s="426"/>
+      <c r="U84" s="426"/>
+      <c r="V84" s="426"/>
+      <c r="W84" s="426"/>
+      <c r="X84" s="426"/>
+      <c r="Y84" s="426"/>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="436"/>
+      <c r="B85" s="435"/>
+      <c r="C85" s="433"/>
+      <c r="D85" s="433"/>
+      <c r="E85" s="433"/>
+      <c r="F85" s="429"/>
+      <c r="G85" s="426"/>
+      <c r="H85" s="426"/>
+      <c r="I85" s="426"/>
+      <c r="J85" s="426"/>
+      <c r="K85" s="426"/>
+      <c r="L85" s="426"/>
+      <c r="M85" s="426"/>
+      <c r="N85" s="426"/>
+      <c r="O85" s="426"/>
+      <c r="P85" s="426"/>
+      <c r="Q85" s="426"/>
+      <c r="R85" s="426"/>
+      <c r="S85" s="426"/>
+      <c r="T85" s="426"/>
+      <c r="U85" s="426"/>
+      <c r="V85" s="426"/>
+      <c r="W85" s="426"/>
+      <c r="X85" s="426"/>
+      <c r="Y85" s="426"/>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="436"/>
+      <c r="B86" s="435"/>
+      <c r="C86" s="433"/>
+      <c r="D86" s="433"/>
+      <c r="E86" s="433"/>
+      <c r="F86" s="429"/>
+      <c r="G86" s="426"/>
+      <c r="H86" s="426"/>
+      <c r="I86" s="426"/>
+      <c r="J86" s="426"/>
+      <c r="K86" s="426"/>
+      <c r="L86" s="426"/>
+      <c r="M86" s="426"/>
+      <c r="N86" s="426"/>
+      <c r="O86" s="426"/>
+      <c r="P86" s="426"/>
+      <c r="Q86" s="426"/>
+      <c r="R86" s="426"/>
+      <c r="S86" s="426"/>
+      <c r="T86" s="426"/>
+      <c r="U86" s="426"/>
+      <c r="V86" s="426"/>
+      <c r="W86" s="426"/>
+      <c r="X86" s="426"/>
+      <c r="Y86" s="426"/>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="436"/>
+      <c r="B87" s="435"/>
+      <c r="C87" s="433"/>
+      <c r="D87" s="433"/>
+      <c r="E87" s="433"/>
+      <c r="F87" s="429"/>
+      <c r="G87" s="426"/>
+      <c r="H87" s="426"/>
+      <c r="I87" s="426"/>
+      <c r="J87" s="426"/>
+      <c r="K87" s="426"/>
+      <c r="L87" s="426"/>
+      <c r="M87" s="426"/>
+      <c r="N87" s="426"/>
+      <c r="O87" s="426"/>
+      <c r="P87" s="426"/>
+      <c r="Q87" s="426"/>
+      <c r="R87" s="426"/>
+      <c r="S87" s="426"/>
+      <c r="T87" s="426"/>
+      <c r="U87" s="426"/>
+      <c r="V87" s="426"/>
+      <c r="W87" s="426"/>
+      <c r="X87" s="426"/>
+      <c r="Y87" s="426"/>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="436"/>
+      <c r="B88" s="435"/>
+      <c r="C88" s="433"/>
+      <c r="D88" s="433"/>
+      <c r="E88" s="433"/>
+      <c r="F88" s="429"/>
+      <c r="G88" s="426"/>
+      <c r="H88" s="426"/>
+      <c r="I88" s="426"/>
+      <c r="J88" s="426"/>
+      <c r="K88" s="426"/>
+      <c r="L88" s="426"/>
+      <c r="M88" s="426"/>
+      <c r="N88" s="426"/>
+      <c r="O88" s="426"/>
+      <c r="P88" s="426"/>
+      <c r="Q88" s="426"/>
+      <c r="R88" s="426"/>
+      <c r="S88" s="426"/>
+      <c r="T88" s="426"/>
+      <c r="U88" s="426"/>
+      <c r="V88" s="426"/>
+      <c r="W88" s="426"/>
+      <c r="X88" s="426"/>
+      <c r="Y88" s="426"/>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="436"/>
+      <c r="B89" s="435"/>
+      <c r="C89" s="433"/>
+      <c r="D89" s="433"/>
+      <c r="E89" s="433"/>
+      <c r="F89" s="429"/>
+      <c r="G89" s="426"/>
+      <c r="H89" s="426"/>
+      <c r="I89" s="426"/>
+      <c r="J89" s="426"/>
+      <c r="K89" s="426"/>
+      <c r="L89" s="426"/>
+      <c r="M89" s="426"/>
+      <c r="N89" s="426"/>
+      <c r="O89" s="426"/>
+      <c r="P89" s="426"/>
+      <c r="Q89" s="426"/>
+      <c r="R89" s="426"/>
+      <c r="S89" s="426"/>
+      <c r="T89" s="426"/>
+      <c r="U89" s="426"/>
+      <c r="V89" s="426"/>
+      <c r="W89" s="426"/>
+      <c r="X89" s="426"/>
+      <c r="Y89" s="426"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="436"/>
+      <c r="B90" s="435"/>
+      <c r="C90" s="433"/>
+      <c r="D90" s="433"/>
+      <c r="E90" s="433"/>
+      <c r="F90" s="429"/>
+      <c r="G90" s="426"/>
+      <c r="H90" s="426"/>
+      <c r="I90" s="426"/>
+      <c r="J90" s="426"/>
+      <c r="K90" s="426"/>
+      <c r="L90" s="426"/>
+      <c r="M90" s="426"/>
+      <c r="N90" s="426"/>
+      <c r="O90" s="426"/>
+      <c r="P90" s="426"/>
+      <c r="Q90" s="426"/>
+      <c r="R90" s="426"/>
+      <c r="S90" s="426"/>
+      <c r="T90" s="426"/>
+      <c r="U90" s="426"/>
+      <c r="V90" s="426"/>
+      <c r="W90" s="426"/>
+      <c r="X90" s="426"/>
+      <c r="Y90" s="426"/>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="436"/>
+      <c r="B91" s="435"/>
+      <c r="C91" s="433"/>
+      <c r="D91" s="433"/>
+      <c r="E91" s="433"/>
+      <c r="F91" s="429"/>
+      <c r="G91" s="426"/>
+      <c r="H91" s="426"/>
+      <c r="I91" s="426"/>
+      <c r="J91" s="426"/>
+      <c r="K91" s="426"/>
+      <c r="L91" s="426"/>
+      <c r="M91" s="426"/>
+      <c r="N91" s="426"/>
+      <c r="O91" s="426"/>
+      <c r="P91" s="426"/>
+      <c r="Q91" s="426"/>
+      <c r="R91" s="426"/>
+      <c r="S91" s="426"/>
+      <c r="T91" s="426"/>
+      <c r="U91" s="426"/>
+      <c r="V91" s="426"/>
+      <c r="W91" s="426"/>
+      <c r="X91" s="426"/>
+      <c r="Y91" s="426"/>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="436"/>
+      <c r="B92" s="435"/>
+      <c r="C92" s="433"/>
+      <c r="D92" s="433"/>
+      <c r="E92" s="433"/>
+      <c r="F92" s="429"/>
+      <c r="G92" s="426"/>
+      <c r="H92" s="426"/>
+      <c r="I92" s="426"/>
+      <c r="J92" s="426"/>
+      <c r="K92" s="426"/>
+      <c r="L92" s="426"/>
+      <c r="M92" s="426"/>
+      <c r="N92" s="426"/>
+      <c r="O92" s="426"/>
+      <c r="P92" s="426"/>
+      <c r="Q92" s="426"/>
+      <c r="R92" s="426"/>
+      <c r="S92" s="426"/>
+      <c r="T92" s="426"/>
+      <c r="U92" s="426"/>
+      <c r="V92" s="426"/>
+      <c r="W92" s="426"/>
+      <c r="X92" s="426"/>
+      <c r="Y92" s="426"/>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="436"/>
+      <c r="B93" s="435"/>
+      <c r="C93" s="433"/>
+      <c r="D93" s="433"/>
+      <c r="E93" s="433"/>
+      <c r="F93" s="429"/>
+      <c r="G93" s="426"/>
+      <c r="H93" s="426"/>
+      <c r="I93" s="426"/>
+      <c r="J93" s="426"/>
+      <c r="K93" s="426"/>
+      <c r="L93" s="426"/>
+      <c r="M93" s="426"/>
+      <c r="N93" s="426"/>
+      <c r="O93" s="426"/>
+      <c r="P93" s="426"/>
+      <c r="Q93" s="426"/>
+      <c r="R93" s="426"/>
+      <c r="S93" s="426"/>
+      <c r="T93" s="426"/>
+      <c r="U93" s="426"/>
+      <c r="V93" s="426"/>
+      <c r="W93" s="426"/>
+      <c r="X93" s="426"/>
+      <c r="Y93" s="426"/>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="436"/>
+      <c r="B94" s="435"/>
+      <c r="C94" s="433"/>
+      <c r="D94" s="433"/>
+      <c r="E94" s="433"/>
+      <c r="F94" s="429"/>
+      <c r="G94" s="426"/>
+      <c r="H94" s="426"/>
+      <c r="I94" s="426"/>
+      <c r="J94" s="426"/>
+      <c r="K94" s="426"/>
+      <c r="L94" s="426"/>
+      <c r="M94" s="426"/>
+      <c r="N94" s="426"/>
+      <c r="O94" s="426"/>
+      <c r="P94" s="426"/>
+      <c r="Q94" s="426"/>
+      <c r="R94" s="426"/>
+      <c r="S94" s="426"/>
+      <c r="T94" s="426"/>
+      <c r="U94" s="426"/>
+      <c r="V94" s="426"/>
+      <c r="W94" s="426"/>
+      <c r="X94" s="426"/>
+      <c r="Y94" s="437"/>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="436"/>
+      <c r="B95" s="435"/>
+      <c r="C95" s="433"/>
+      <c r="D95" s="433"/>
+      <c r="E95" s="433"/>
+      <c r="F95" s="429"/>
+      <c r="G95" s="426"/>
+      <c r="H95" s="426"/>
+      <c r="I95" s="426"/>
+      <c r="J95" s="426"/>
+      <c r="K95" s="426"/>
+      <c r="L95" s="426"/>
+      <c r="M95" s="426"/>
+      <c r="N95" s="426"/>
+      <c r="O95" s="426"/>
+      <c r="P95" s="426"/>
+      <c r="Q95" s="426"/>
+      <c r="R95" s="426"/>
+      <c r="S95" s="426"/>
+      <c r="T95" s="426"/>
+      <c r="U95" s="426"/>
+      <c r="V95" s="426"/>
+      <c r="W95" s="426"/>
+      <c r="X95" s="426"/>
+      <c r="Y95" s="437"/>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="436"/>
+      <c r="B96" s="435"/>
+      <c r="C96" s="433"/>
+      <c r="D96" s="433"/>
+      <c r="E96" s="433"/>
+      <c r="F96" s="429"/>
+      <c r="G96" s="426"/>
+      <c r="H96" s="426"/>
+      <c r="I96" s="426"/>
+      <c r="J96" s="426"/>
+      <c r="K96" s="426"/>
+      <c r="L96" s="426"/>
+      <c r="M96" s="426"/>
+      <c r="N96" s="426"/>
+      <c r="O96" s="426"/>
+      <c r="P96" s="426"/>
+      <c r="Q96" s="426"/>
+      <c r="R96" s="426"/>
+      <c r="S96" s="426"/>
+      <c r="T96" s="426"/>
+      <c r="U96" s="426"/>
+      <c r="V96" s="426"/>
+      <c r="W96" s="426"/>
+      <c r="X96" s="426"/>
+      <c r="Y96" s="426"/>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="436"/>
+      <c r="B97" s="435"/>
+      <c r="C97" s="433"/>
+      <c r="D97" s="433"/>
+      <c r="E97" s="433"/>
+      <c r="F97" s="429"/>
+      <c r="G97" s="426"/>
+      <c r="H97" s="426"/>
+      <c r="I97" s="426"/>
+      <c r="J97" s="426"/>
+      <c r="K97" s="426"/>
+      <c r="L97" s="426"/>
+      <c r="M97" s="426"/>
+      <c r="N97" s="426"/>
+      <c r="O97" s="426"/>
+      <c r="P97" s="426"/>
+      <c r="Q97" s="426"/>
+      <c r="R97" s="426"/>
+      <c r="S97" s="426"/>
+      <c r="T97" s="426"/>
+      <c r="U97" s="426"/>
+      <c r="V97" s="426"/>
+      <c r="W97" s="426"/>
+      <c r="X97" s="426"/>
+      <c r="Y97" s="437"/>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="436"/>
+      <c r="B98" s="435"/>
+      <c r="C98" s="433"/>
+      <c r="D98" s="433"/>
+      <c r="E98" s="433"/>
+      <c r="F98" s="429"/>
+      <c r="G98" s="426"/>
+      <c r="H98" s="426"/>
+      <c r="I98" s="426"/>
+      <c r="J98" s="426"/>
+      <c r="K98" s="426"/>
+      <c r="L98" s="426"/>
+      <c r="M98" s="426"/>
+      <c r="N98" s="426"/>
+      <c r="O98" s="426"/>
+      <c r="P98" s="426"/>
+      <c r="Q98" s="426"/>
+      <c r="R98" s="426"/>
+      <c r="S98" s="426"/>
+      <c r="T98" s="426"/>
+      <c r="U98" s="426"/>
+      <c r="V98" s="426"/>
+      <c r="W98" s="426"/>
+      <c r="X98" s="426"/>
+      <c r="Y98" s="437"/>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="436"/>
+      <c r="B99" s="435"/>
+      <c r="C99" s="433"/>
+      <c r="D99" s="433"/>
+      <c r="E99" s="433"/>
+      <c r="F99" s="429"/>
+      <c r="G99" s="426"/>
+      <c r="H99" s="426"/>
+      <c r="I99" s="426"/>
+      <c r="J99" s="426"/>
+      <c r="K99" s="426"/>
+      <c r="L99" s="426"/>
+      <c r="M99" s="426"/>
+      <c r="N99" s="426"/>
+      <c r="O99" s="426"/>
+      <c r="P99" s="426"/>
+      <c r="Q99" s="426"/>
+      <c r="R99" s="426"/>
+      <c r="S99" s="426"/>
+      <c r="T99" s="426"/>
+      <c r="U99" s="426"/>
+      <c r="V99" s="426"/>
+      <c r="W99" s="426"/>
+      <c r="X99" s="426"/>
+      <c r="Y99" s="426"/>
+    </row>
+    <row r="100" spans="1:25" s="439" customFormat="1">
+      <c r="A100" s="436"/>
+      <c r="B100" s="435"/>
+      <c r="C100" s="433"/>
+      <c r="D100" s="433"/>
+      <c r="E100" s="433"/>
+      <c r="F100" s="438"/>
+      <c r="G100" s="437"/>
+      <c r="H100" s="437"/>
+      <c r="I100" s="426"/>
+      <c r="J100" s="426"/>
+      <c r="K100" s="437"/>
+      <c r="L100" s="426"/>
+      <c r="M100" s="437"/>
+      <c r="N100" s="437"/>
+      <c r="O100" s="426"/>
+      <c r="P100" s="437"/>
+      <c r="Q100" s="437"/>
+      <c r="R100" s="437"/>
+      <c r="S100" s="426"/>
+      <c r="T100" s="426"/>
+      <c r="U100" s="426"/>
+      <c r="V100" s="426"/>
+      <c r="W100" s="426"/>
+      <c r="X100" s="426"/>
+      <c r="Y100" s="426"/>
+    </row>
+    <row r="101" spans="1:25" s="439" customFormat="1">
+      <c r="A101" s="436"/>
+      <c r="B101" s="435"/>
+      <c r="C101" s="433"/>
+      <c r="D101" s="433"/>
+      <c r="E101" s="433"/>
+      <c r="F101" s="438"/>
+      <c r="G101" s="437"/>
+      <c r="H101" s="437"/>
+      <c r="I101" s="426"/>
+      <c r="J101" s="426"/>
+      <c r="K101" s="437"/>
+      <c r="L101" s="426"/>
+      <c r="M101" s="437"/>
+      <c r="N101" s="437"/>
+      <c r="O101" s="426"/>
+      <c r="P101" s="437"/>
+      <c r="Q101" s="437"/>
+      <c r="R101" s="437"/>
+      <c r="S101" s="426"/>
+      <c r="T101" s="426"/>
+      <c r="U101" s="426"/>
+      <c r="V101" s="426"/>
+      <c r="W101" s="426"/>
+      <c r="X101" s="426"/>
+      <c r="Y101" s="426"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="436"/>
+      <c r="B102" s="435"/>
+      <c r="C102" s="433"/>
+      <c r="D102" s="433"/>
+      <c r="E102" s="433"/>
+      <c r="F102" s="429"/>
+      <c r="G102" s="426"/>
+      <c r="H102" s="426"/>
+      <c r="I102" s="426"/>
+      <c r="J102" s="426"/>
+      <c r="K102" s="426"/>
+      <c r="L102" s="426"/>
+      <c r="M102" s="426"/>
+      <c r="N102" s="426"/>
+      <c r="O102" s="426"/>
+      <c r="P102" s="426"/>
+      <c r="Q102" s="426"/>
+      <c r="R102" s="426"/>
+      <c r="S102" s="426"/>
+      <c r="T102" s="426"/>
+      <c r="U102" s="426"/>
+      <c r="V102" s="426"/>
+      <c r="W102" s="426"/>
+      <c r="X102" s="426"/>
+      <c r="Y102" s="426"/>
+    </row>
+    <row r="103" spans="1:25" s="439" customFormat="1">
+      <c r="A103" s="436"/>
+      <c r="B103" s="435"/>
+      <c r="C103" s="433"/>
+      <c r="D103" s="433"/>
+      <c r="E103" s="433"/>
+      <c r="F103" s="438"/>
+      <c r="G103" s="437"/>
+      <c r="H103" s="437"/>
+      <c r="I103" s="426"/>
+      <c r="J103" s="426"/>
+      <c r="K103" s="437"/>
+      <c r="L103" s="426"/>
+      <c r="M103" s="437"/>
+      <c r="N103" s="437"/>
+      <c r="O103" s="437"/>
+      <c r="P103" s="437"/>
+      <c r="Q103" s="437"/>
+      <c r="R103" s="437"/>
+      <c r="S103" s="426"/>
+      <c r="T103" s="426"/>
+      <c r="U103" s="426"/>
+      <c r="V103" s="426"/>
+      <c r="W103" s="426"/>
+      <c r="X103" s="426"/>
+      <c r="Y103" s="437"/>
+    </row>
+    <row r="104" spans="1:25" s="439" customFormat="1">
+      <c r="A104" s="436"/>
+      <c r="B104" s="435"/>
+      <c r="C104" s="433"/>
+      <c r="D104" s="433"/>
+      <c r="E104" s="433"/>
+      <c r="F104" s="438"/>
+      <c r="G104" s="437"/>
+      <c r="H104" s="437"/>
+      <c r="I104" s="426"/>
+      <c r="J104" s="426"/>
+      <c r="K104" s="437"/>
+      <c r="L104" s="426"/>
+      <c r="M104" s="437"/>
+      <c r="N104" s="426"/>
+      <c r="O104" s="437"/>
+      <c r="P104" s="437"/>
+      <c r="Q104" s="437"/>
+      <c r="R104" s="437"/>
+      <c r="S104" s="426"/>
+      <c r="T104" s="426"/>
+      <c r="U104" s="426"/>
+      <c r="V104" s="426"/>
+      <c r="W104" s="426"/>
+      <c r="X104" s="426"/>
+      <c r="Y104" s="437"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="436"/>
+      <c r="B105" s="435"/>
+      <c r="C105" s="433"/>
+      <c r="D105" s="433"/>
+      <c r="E105" s="433"/>
+      <c r="F105" s="429"/>
+      <c r="G105" s="426"/>
+      <c r="H105" s="426"/>
+      <c r="I105" s="426"/>
+      <c r="J105" s="426"/>
+      <c r="K105" s="426"/>
+      <c r="L105" s="426"/>
+      <c r="M105" s="426"/>
+      <c r="N105" s="426"/>
+      <c r="O105" s="426"/>
+      <c r="P105" s="426"/>
+      <c r="Q105" s="426"/>
+      <c r="R105" s="426"/>
+      <c r="S105" s="426"/>
+      <c r="T105" s="426"/>
+      <c r="U105" s="426"/>
+      <c r="V105" s="426"/>
+      <c r="W105" s="426"/>
+      <c r="X105" s="426"/>
+      <c r="Y105" s="440"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="436"/>
+      <c r="B106" s="435"/>
+      <c r="C106" s="433"/>
+      <c r="D106" s="433"/>
+      <c r="E106" s="433"/>
+      <c r="F106" s="429"/>
+      <c r="G106" s="426"/>
+      <c r="H106" s="426"/>
+      <c r="I106" s="426"/>
+      <c r="J106" s="426"/>
+      <c r="K106" s="426"/>
+      <c r="L106" s="426"/>
+      <c r="M106" s="426"/>
+      <c r="N106" s="426"/>
+      <c r="O106" s="426"/>
+      <c r="P106" s="426"/>
+      <c r="Q106" s="426"/>
+      <c r="R106" s="426"/>
+      <c r="S106" s="426"/>
+      <c r="T106" s="426"/>
+      <c r="U106" s="426"/>
+      <c r="V106" s="426"/>
+      <c r="W106" s="426"/>
+      <c r="X106" s="426"/>
+      <c r="Y106" s="440"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="436"/>
+      <c r="B107" s="435"/>
+      <c r="C107" s="433"/>
+      <c r="D107" s="433"/>
+      <c r="E107" s="433"/>
+      <c r="F107" s="429"/>
+      <c r="G107" s="426"/>
+      <c r="H107" s="426"/>
+      <c r="I107" s="426"/>
+      <c r="J107" s="426"/>
+      <c r="K107" s="426"/>
+      <c r="L107" s="426"/>
+      <c r="M107" s="426"/>
+      <c r="N107" s="426"/>
+      <c r="O107" s="426"/>
+      <c r="P107" s="426"/>
+      <c r="Q107" s="426"/>
+      <c r="R107" s="426"/>
+      <c r="S107" s="426"/>
+      <c r="T107" s="426"/>
+      <c r="U107" s="426"/>
+      <c r="V107" s="426"/>
+      <c r="W107" s="426"/>
+      <c r="X107" s="426"/>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="436"/>
+      <c r="B108" s="435"/>
+      <c r="C108" s="433"/>
+      <c r="D108" s="433"/>
+      <c r="E108" s="433"/>
+      <c r="F108" s="429"/>
+      <c r="G108" s="426"/>
+      <c r="H108" s="426"/>
+      <c r="I108" s="426"/>
+      <c r="J108" s="426"/>
+      <c r="K108" s="426"/>
+      <c r="L108" s="426"/>
+      <c r="M108" s="426"/>
+      <c r="N108" s="426"/>
+      <c r="O108" s="426"/>
+      <c r="P108" s="426"/>
+      <c r="Q108" s="426"/>
+      <c r="R108" s="426"/>
+      <c r="S108" s="426"/>
+      <c r="T108" s="426"/>
+      <c r="U108" s="426"/>
+      <c r="V108" s="426"/>
+      <c r="W108" s="426"/>
+      <c r="X108" s="426"/>
+    </row>
+    <row r="109" spans="1:25" s="439" customFormat="1">
+      <c r="A109" s="436"/>
+      <c r="B109" s="436"/>
+      <c r="C109" s="421"/>
+      <c r="D109" s="421"/>
+      <c r="E109" s="421"/>
+      <c r="F109" s="438"/>
+      <c r="G109" s="426"/>
+      <c r="H109" s="426"/>
+      <c r="I109" s="426"/>
+      <c r="J109" s="426"/>
+      <c r="K109" s="426"/>
+      <c r="L109" s="426"/>
+      <c r="M109" s="426"/>
+      <c r="N109" s="426"/>
+      <c r="O109" s="437"/>
+      <c r="P109" s="437"/>
+      <c r="Q109" s="437"/>
+      <c r="R109" s="437"/>
+      <c r="S109" s="426"/>
+      <c r="T109" s="426"/>
+      <c r="U109" s="426"/>
+      <c r="V109" s="426"/>
+      <c r="W109" s="426"/>
+      <c r="X109" s="426"/>
+      <c r="Y109" s="441"/>
+    </row>
+    <row r="110" spans="1:25" s="439" customFormat="1">
+      <c r="A110" s="436"/>
+      <c r="B110" s="435"/>
+      <c r="C110" s="433"/>
+      <c r="D110" s="433"/>
+      <c r="E110" s="433"/>
+      <c r="F110" s="438"/>
+      <c r="G110" s="437"/>
+      <c r="H110" s="437"/>
+      <c r="I110" s="426"/>
+      <c r="J110" s="426"/>
+      <c r="K110" s="437"/>
+      <c r="L110" s="426"/>
+      <c r="M110" s="437"/>
+      <c r="N110" s="437"/>
+      <c r="O110" s="437"/>
+      <c r="P110" s="437"/>
+      <c r="Q110" s="437"/>
+      <c r="R110" s="437"/>
+      <c r="S110" s="426"/>
+      <c r="T110" s="426"/>
+      <c r="U110" s="426"/>
+      <c r="V110" s="426"/>
+      <c r="W110" s="426"/>
+      <c r="X110" s="426"/>
+      <c r="Y110" s="441"/>
+    </row>
+    <row r="111" spans="1:25" s="439" customFormat="1">
+      <c r="A111" s="442"/>
+      <c r="B111" s="443"/>
+      <c r="C111" s="443"/>
+      <c r="D111" s="443"/>
+      <c r="E111" s="443"/>
+      <c r="F111" s="440"/>
+      <c r="G111" s="440"/>
+      <c r="H111" s="440"/>
+      <c r="I111" s="441"/>
+      <c r="J111" s="441"/>
+      <c r="K111" s="440"/>
+      <c r="L111" s="441"/>
+      <c r="M111" s="440"/>
+      <c r="N111" s="440"/>
+      <c r="O111" s="440"/>
+      <c r="P111" s="440"/>
+      <c r="Q111" s="440"/>
+      <c r="R111" s="440"/>
+      <c r="S111" s="441"/>
+      <c r="T111" s="441"/>
+      <c r="U111" s="441"/>
+      <c r="V111" s="441"/>
+      <c r="W111" s="441"/>
+      <c r="X111" s="441"/>
+      <c r="Y111" s="441"/>
+    </row>
+    <row r="112" spans="1:25" s="439" customFormat="1">
+      <c r="A112" s="442"/>
+      <c r="B112" s="443"/>
+      <c r="C112" s="443"/>
+      <c r="D112" s="443"/>
+      <c r="E112" s="443"/>
+      <c r="F112" s="440"/>
+      <c r="G112" s="440"/>
+      <c r="H112" s="440"/>
+      <c r="I112" s="441"/>
+      <c r="J112" s="441"/>
+      <c r="K112" s="440"/>
+      <c r="L112" s="441"/>
+      <c r="M112" s="440"/>
+      <c r="N112" s="440"/>
+      <c r="O112" s="440"/>
+      <c r="P112" s="440"/>
+      <c r="Q112" s="440"/>
+      <c r="R112" s="440"/>
+      <c r="S112" s="441"/>
+      <c r="T112" s="441"/>
+      <c r="U112" s="441"/>
+      <c r="V112" s="441"/>
+      <c r="W112" s="441"/>
+      <c r="X112" s="441"/>
+      <c r="Y112" s="441"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="442"/>
+      <c r="B114" s="442"/>
+      <c r="C114" s="442"/>
+      <c r="D114" s="442"/>
+      <c r="E114" s="442"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z298"/>
   <sheetViews>
@@ -30446,15 +35740,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N83" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A125" sqref="A125:XFD125"/>
+      <selection pane="bottomRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.46484375" defaultRowHeight="14.25"/>
@@ -37864,7 +43158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z476"/>
   <sheetViews>
@@ -41091,7 +46385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y304"/>
   <sheetViews>
@@ -46827,7 +52121,4434 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z114"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="49.3984375" defaultRowHeight="15.4"/>
+  <cols>
+    <col min="1" max="1" width="31.46484375" style="441" customWidth="1"/>
+    <col min="2" max="2" width="39.46484375" style="441" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" style="441" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" style="441" customWidth="1"/>
+    <col min="5" max="5" width="23.73046875" style="441" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="441" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" style="441" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="441" customWidth="1"/>
+    <col min="9" max="10" width="14.59765625" style="441" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.46484375" style="441" customWidth="1"/>
+    <col min="12" max="12" width="9.86328125" style="441" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" style="441" customWidth="1"/>
+    <col min="14" max="14" width="86.1328125" style="441" customWidth="1"/>
+    <col min="15" max="15" width="45.59765625" style="441" customWidth="1"/>
+    <col min="16" max="16" width="39.265625" style="441" customWidth="1"/>
+    <col min="17" max="17" width="15.265625" style="441" customWidth="1"/>
+    <col min="18" max="18" width="29.46484375" style="441" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="441" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.86328125" style="441" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.73046875" style="441" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.59765625" style="441" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.46484375" style="441" customWidth="1"/>
+    <col min="25" max="25" width="29.46484375" style="441" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="49.3984375" style="428"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="413" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="409" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B1" s="410" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1" s="410" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1" s="410" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E1" s="410" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F1" s="411" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1" s="410" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H1" s="410" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I1" s="412" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J1" s="412" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K1" s="412" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L1" s="412" t="s">
+        <v>1592</v>
+      </c>
+      <c r="M1" s="412" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N1" s="410" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O1" s="410" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P1" s="410" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q1" s="410" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R1" s="410" t="s">
+        <v>1598</v>
+      </c>
+      <c r="S1" s="410" t="s">
+        <v>1599</v>
+      </c>
+      <c r="T1" s="410" t="s">
+        <v>1600</v>
+      </c>
+      <c r="U1" s="410" t="s">
+        <v>1601</v>
+      </c>
+      <c r="V1" s="410" t="s">
+        <v>1602</v>
+      </c>
+      <c r="W1" s="410" t="s">
+        <v>1603</v>
+      </c>
+      <c r="X1" s="410" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Y1" s="410" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="419" customFormat="1">
+      <c r="A2" s="414" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B2" s="164" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C2" s="415" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D2" s="415"/>
+      <c r="E2" s="416" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F2" s="417" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G2" s="418" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H2" s="418" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I2" s="418"/>
+      <c r="J2" s="418"/>
+      <c r="K2" s="418"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="418"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="418"/>
+      <c r="P2" s="418"/>
+      <c r="Q2" s="418"/>
+      <c r="R2" s="418"/>
+      <c r="S2" s="418"/>
+      <c r="T2" s="418"/>
+      <c r="U2" s="418"/>
+      <c r="V2" s="418"/>
+      <c r="W2" s="418"/>
+      <c r="X2" s="418"/>
+      <c r="Y2" s="418"/>
+    </row>
+    <row r="3" spans="1:26" s="419" customFormat="1" ht="46.15">
+      <c r="A3" s="420"/>
+      <c r="B3" s="164" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C3" s="415" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="164"/>
+      <c r="E3" s="421" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F3" s="417" t="s">
+        <v>1615</v>
+      </c>
+      <c r="G3" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H3" s="418" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I3" s="418"/>
+      <c r="J3" s="418"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="418"/>
+      <c r="N3" s="418"/>
+      <c r="O3" s="418"/>
+      <c r="P3" s="418"/>
+      <c r="Q3" s="418"/>
+      <c r="R3" s="418"/>
+      <c r="S3" s="418"/>
+      <c r="T3" s="418"/>
+      <c r="U3" s="418"/>
+      <c r="V3" s="418"/>
+      <c r="W3" s="418"/>
+      <c r="X3" s="418"/>
+      <c r="Y3" s="418"/>
+    </row>
+    <row r="4" spans="1:26" s="419" customFormat="1">
+      <c r="A4" s="420"/>
+      <c r="B4" s="164" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C4" s="415" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="164"/>
+      <c r="E4" s="421" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F4" s="417" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G4" s="418" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H4" s="418" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I4" s="418"/>
+      <c r="J4" s="418"/>
+      <c r="K4" s="418"/>
+      <c r="L4" s="418"/>
+      <c r="M4" s="418"/>
+      <c r="N4" s="418"/>
+      <c r="O4" s="418"/>
+      <c r="P4" s="418"/>
+      <c r="Q4" s="418"/>
+      <c r="R4" s="418"/>
+      <c r="S4" s="418"/>
+      <c r="T4" s="418"/>
+      <c r="U4" s="418"/>
+      <c r="V4" s="418"/>
+      <c r="W4" s="418"/>
+      <c r="X4" s="418"/>
+      <c r="Y4" s="418"/>
+    </row>
+    <row r="5" spans="1:26" s="422" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="444"/>
+      <c r="B5" s="164" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C5" s="415" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D5" s="164" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E5" s="421" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F5" s="417" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G5" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H5" s="418" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I5" s="418"/>
+      <c r="J5" s="418"/>
+      <c r="K5" s="418"/>
+      <c r="L5" s="418"/>
+      <c r="M5" s="418"/>
+      <c r="N5" s="418"/>
+      <c r="O5" s="418"/>
+      <c r="P5" s="418"/>
+      <c r="Q5" s="418"/>
+      <c r="R5" s="418"/>
+      <c r="S5" s="418"/>
+      <c r="T5" s="418"/>
+      <c r="U5" s="418"/>
+      <c r="V5" s="418"/>
+      <c r="W5" s="418"/>
+      <c r="X5" s="418"/>
+      <c r="Y5" s="418"/>
+    </row>
+    <row r="6" spans="1:26" s="362" customFormat="1" ht="14.25">
+      <c r="A6" s="92" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="95" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="449"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="97" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O6" s="141"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+    </row>
+    <row r="7" spans="1:26" s="448" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="430"/>
+      <c r="B7" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D7" s="421"/>
+      <c r="E7" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F7" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G7" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H7" s="426" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I7" s="426"/>
+      <c r="J7" s="426"/>
+      <c r="K7" s="426"/>
+      <c r="L7" s="426"/>
+      <c r="M7" s="426"/>
+      <c r="N7" s="426"/>
+      <c r="O7" s="426"/>
+      <c r="P7" s="426"/>
+      <c r="Q7" s="426"/>
+      <c r="R7" s="426"/>
+      <c r="S7" s="426"/>
+      <c r="T7" s="426"/>
+      <c r="U7" s="426"/>
+      <c r="V7" s="426"/>
+      <c r="W7" s="426"/>
+      <c r="X7" s="427"/>
+      <c r="Y7" s="426"/>
+    </row>
+    <row r="8" spans="1:26" s="362" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A8" s="92"/>
+      <c r="B8" s="94" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="95" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G8" s="90" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="449"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="97" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O8" s="141"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+    </row>
+    <row r="9" spans="1:26" s="422" customFormat="1">
+      <c r="A9" s="414" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C9" s="415" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D9" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="164" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F9" s="417" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G9" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H9" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I9" s="418"/>
+      <c r="J9" s="418"/>
+      <c r="K9" s="418"/>
+      <c r="L9" s="418"/>
+      <c r="M9" s="418"/>
+      <c r="N9" s="418"/>
+      <c r="O9" s="418"/>
+      <c r="P9" s="418"/>
+      <c r="Q9" s="418"/>
+      <c r="R9" s="418"/>
+      <c r="S9" s="418"/>
+      <c r="T9" s="418"/>
+      <c r="U9" s="418"/>
+      <c r="V9" s="418"/>
+      <c r="W9" s="418"/>
+      <c r="X9" s="418"/>
+      <c r="Y9" s="418"/>
+    </row>
+    <row r="10" spans="1:26" s="422" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="420" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C10" s="415" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D10" s="164" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E10" s="164" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F10" s="417" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G10" s="418" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H10" s="418" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I10" s="418"/>
+      <c r="J10" s="418"/>
+      <c r="K10" s="418"/>
+      <c r="L10" s="418"/>
+      <c r="M10" s="418"/>
+      <c r="N10" s="418" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="418"/>
+      <c r="P10" s="418"/>
+      <c r="Q10" s="418"/>
+      <c r="R10" s="418"/>
+      <c r="S10" s="418"/>
+      <c r="T10" s="418"/>
+      <c r="U10" s="418"/>
+      <c r="V10" s="418"/>
+      <c r="W10" s="418"/>
+      <c r="X10" s="418"/>
+      <c r="Y10" s="418"/>
+    </row>
+    <row r="11" spans="1:26" s="22" customFormat="1" ht="14.25">
+      <c r="A11" s="92" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>573</v>
+      </c>
+      <c r="G11" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>574</v>
+      </c>
+      <c r="J11" s="90" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O11" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y11" s="90"/>
+    </row>
+    <row r="12" spans="1:26" s="22" customFormat="1" ht="28.5">
+      <c r="A12" s="93"/>
+      <c r="B12" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="G12" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H12" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>935</v>
+      </c>
+      <c r="J12" s="90" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90" t="s">
+        <v>1555</v>
+      </c>
+      <c r="O12" s="133" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90" t="s">
+        <v>1561</v>
+      </c>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y12" s="90"/>
+    </row>
+    <row r="13" spans="1:26" s="22" customFormat="1" ht="14.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J13" s="90" t="s">
+        <v>417</v>
+      </c>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90" t="s">
+        <v>1556</v>
+      </c>
+      <c r="O13" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y13" s="90"/>
+    </row>
+    <row r="14" spans="1:26" s="22" customFormat="1" ht="14.65" thickBot="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="446" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="446" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90" t="s">
+        <v>1175</v>
+      </c>
+      <c r="O14" s="90" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P14" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="97" t="s">
+        <v>1174</v>
+      </c>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" s="90"/>
+    </row>
+    <row r="15" spans="1:26" s="423" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="424" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B15" s="421" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C15" s="415" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D15" s="421" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E15" s="421" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F15" s="429" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G15" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H15" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I15" s="426"/>
+      <c r="J15" s="426"/>
+      <c r="K15" s="426"/>
+      <c r="L15" s="426"/>
+      <c r="M15" s="426"/>
+      <c r="N15" s="426" t="s">
+        <v>1726</v>
+      </c>
+      <c r="O15" s="426"/>
+      <c r="P15" s="426"/>
+      <c r="Q15" s="426"/>
+      <c r="R15" s="426"/>
+      <c r="S15" s="426"/>
+      <c r="T15" s="426"/>
+      <c r="U15" s="426"/>
+      <c r="V15" s="426"/>
+      <c r="W15" s="418"/>
+      <c r="X15" s="426"/>
+      <c r="Y15" s="426"/>
+    </row>
+    <row r="16" spans="1:26" s="423" customFormat="1">
+      <c r="A16" s="424" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B16" s="421" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C16" s="415" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D16" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E16" s="421" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F16" s="429" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G16" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H16" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I16" s="426"/>
+      <c r="J16" s="426"/>
+      <c r="K16" s="426"/>
+      <c r="L16" s="426"/>
+      <c r="M16" s="426"/>
+      <c r="N16" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O16" s="426"/>
+      <c r="P16" s="426"/>
+      <c r="Q16" s="426"/>
+      <c r="R16" s="426"/>
+      <c r="S16" s="426"/>
+      <c r="T16" s="426"/>
+      <c r="U16" s="426"/>
+      <c r="V16" s="426"/>
+      <c r="W16" s="418"/>
+      <c r="X16" s="426"/>
+      <c r="Y16" s="426"/>
+    </row>
+    <row r="17" spans="1:25" s="423" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="445" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B17" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C17" s="421" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D17" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E17" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F17" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G17" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H17" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I17" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J17" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K17" s="426"/>
+      <c r="L17" s="426"/>
+      <c r="M17" s="426"/>
+      <c r="N17" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O17" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P17" s="426"/>
+      <c r="Q17" s="426"/>
+      <c r="R17" s="426"/>
+      <c r="S17" s="426"/>
+      <c r="T17" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U17" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V17" s="426"/>
+      <c r="W17" s="418"/>
+      <c r="X17" s="426"/>
+      <c r="Y17" s="426"/>
+    </row>
+    <row r="18" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A18" s="445" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B18" s="445" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C18" s="421" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D18" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E18" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F18" s="429"/>
+      <c r="G18" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H18" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I18" s="426"/>
+      <c r="J18" s="426"/>
+      <c r="K18" s="426"/>
+      <c r="L18" s="426"/>
+      <c r="M18" s="426"/>
+      <c r="N18" s="426" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O18" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P18" s="426"/>
+      <c r="Q18" s="426"/>
+      <c r="R18" s="426"/>
+      <c r="S18" s="426"/>
+      <c r="T18" s="426"/>
+      <c r="U18" s="426"/>
+      <c r="V18" s="426"/>
+      <c r="W18" s="418"/>
+      <c r="X18" s="426"/>
+      <c r="Y18" s="426"/>
+    </row>
+    <row r="19" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A19" s="445"/>
+      <c r="B19" s="445" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C19" s="421" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D19" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E19" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F19" s="429"/>
+      <c r="G19" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H19" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I19" s="426"/>
+      <c r="J19" s="426"/>
+      <c r="K19" s="426"/>
+      <c r="L19" s="426"/>
+      <c r="M19" s="426"/>
+      <c r="N19" s="426" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O19" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P19" s="426"/>
+      <c r="Q19" s="426"/>
+      <c r="R19" s="426"/>
+      <c r="S19" s="426"/>
+      <c r="T19" s="426"/>
+      <c r="U19" s="426"/>
+      <c r="V19" s="426"/>
+      <c r="W19" s="418"/>
+      <c r="X19" s="426"/>
+      <c r="Y19" s="426"/>
+    </row>
+    <row r="20" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A20" s="445" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B20" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C20" s="421" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D20" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E20" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F20" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G20" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H20" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I20" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J20" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K20" s="426"/>
+      <c r="L20" s="426"/>
+      <c r="M20" s="426"/>
+      <c r="N20" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O20" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P20" s="426"/>
+      <c r="Q20" s="426"/>
+      <c r="R20" s="426"/>
+      <c r="S20" s="426"/>
+      <c r="T20" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U20" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V20" s="426"/>
+      <c r="W20" s="418"/>
+      <c r="X20" s="426"/>
+      <c r="Y20" s="426"/>
+    </row>
+    <row r="21" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B21" s="450" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C21" s="450" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J21" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O21" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T21" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U21" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V21" s="16"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="450"/>
+      <c r="Y21" s="450"/>
+    </row>
+    <row r="22" spans="1:25" s="262" customFormat="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="450" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C22" s="450" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J22" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O22" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T22" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U22" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V22" s="16"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="450"/>
+      <c r="Y22" s="450"/>
+    </row>
+    <row r="23" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B23" s="450" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C23" s="450" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J23" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O23" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T23" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U23" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="450"/>
+      <c r="Y23" s="450"/>
+    </row>
+    <row r="24" spans="1:25" s="262" customFormat="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="450" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C24" s="450" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J24" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O24" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T24" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U24" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V24" s="16"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="450"/>
+      <c r="Y24" s="450"/>
+    </row>
+    <row r="25" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B25" s="450" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C25" s="450" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J25" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O25" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T25" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U25" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V25" s="16"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="450"/>
+      <c r="Y25" s="450"/>
+    </row>
+    <row r="26" spans="1:25" s="262" customFormat="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="450" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C26" s="450" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J26" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O26" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T26" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U26" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V26" s="16"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="450"/>
+      <c r="Y26" s="450"/>
+    </row>
+    <row r="27" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B27" s="450" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C27" s="450" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J27" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O27" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T27" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U27" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V27" s="16"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="450"/>
+      <c r="Y27" s="450"/>
+    </row>
+    <row r="28" spans="1:25" s="262" customFormat="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="450" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C28" s="450" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J28" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O28" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T28" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U28" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="450"/>
+      <c r="Y28" s="450"/>
+    </row>
+    <row r="29" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B29" s="450" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C29" s="450" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J29" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O29" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T29" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U29" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="450"/>
+      <c r="Y29" s="450"/>
+    </row>
+    <row r="30" spans="1:25" s="262" customFormat="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="450" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C30" s="450" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J30" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O30" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T30" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U30" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V30" s="16"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="450"/>
+      <c r="Y30" s="450"/>
+    </row>
+    <row r="31" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B31" s="450" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C31" s="450" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I31" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J31" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O31" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T31" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U31" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="450"/>
+      <c r="Y31" s="450"/>
+    </row>
+    <row r="32" spans="1:25" s="262" customFormat="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="450" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C32" s="450" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J32" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O32" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T32" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U32" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V32" s="16"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="450"/>
+      <c r="Y32" s="450"/>
+    </row>
+    <row r="33" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B33" s="450" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C33" s="450" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J33" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O33" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T33" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U33" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V33" s="16"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="450"/>
+      <c r="Y33" s="450"/>
+    </row>
+    <row r="34" spans="1:25" s="262" customFormat="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="450" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C34" s="450" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J34" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O34" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T34" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U34" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V34" s="16"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="450"/>
+      <c r="Y34" s="450"/>
+    </row>
+    <row r="35" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A35" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B35" s="450" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C35" s="450" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I35" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J35" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O35" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R35" s="15"/>
+      <c r="S35" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T35" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U35" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V35" s="16"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="450"/>
+      <c r="Y35" s="450"/>
+    </row>
+    <row r="36" spans="1:25" s="262" customFormat="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="450" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C36" s="450" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J36" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O36" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R36" s="15"/>
+      <c r="S36" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T36" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U36" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V36" s="16"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="450"/>
+      <c r="Y36" s="450"/>
+    </row>
+    <row r="37" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A37" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B37" s="450" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C37" s="450" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I37" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J37" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O37" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R37" s="15"/>
+      <c r="S37" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T37" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U37" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V37" s="16"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="450"/>
+      <c r="Y37" s="450"/>
+    </row>
+    <row r="38" spans="1:25" s="262" customFormat="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="450" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C38" s="450" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J38" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O38" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="S38" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T38" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U38" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V38" s="16"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="450"/>
+      <c r="Y38" s="450"/>
+    </row>
+    <row r="39" spans="1:25" s="262" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A39" s="17" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B39" s="450" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C39" s="450" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J39" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="451" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O39" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R39" s="15"/>
+      <c r="S39" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T39" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U39" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V39" s="16"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="450"/>
+      <c r="Y39" s="450"/>
+    </row>
+    <row r="40" spans="1:25" s="262" customFormat="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="450" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C40" s="450" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I40" s="426" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J40" s="426" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="452" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O40" s="426" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="426" t="s">
+        <v>1528</v>
+      </c>
+      <c r="T40" s="426" t="s">
+        <v>1529</v>
+      </c>
+      <c r="U40" s="426" t="s">
+        <v>1122</v>
+      </c>
+      <c r="V40" s="16"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="450"/>
+      <c r="Y40" s="450"/>
+    </row>
+    <row r="41" spans="1:25" s="423" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A41" s="445" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B41" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C41" s="421" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D41" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E41" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F41" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G41" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H41" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I41" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J41" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K41" s="426"/>
+      <c r="L41" s="426"/>
+      <c r="M41" s="426"/>
+      <c r="N41" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O41" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P41" s="426"/>
+      <c r="Q41" s="426"/>
+      <c r="R41" s="426"/>
+      <c r="S41" s="426"/>
+      <c r="T41" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U41" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V41" s="426"/>
+      <c r="W41" s="418"/>
+      <c r="X41" s="426"/>
+      <c r="Y41" s="426"/>
+    </row>
+    <row r="42" spans="1:25" s="448" customFormat="1">
+      <c r="A42" s="424" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B42" s="421" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C42" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D42" s="421"/>
+      <c r="E42" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F42" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G42" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H42" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I42" s="426"/>
+      <c r="J42" s="426"/>
+      <c r="K42" s="426"/>
+      <c r="L42" s="426"/>
+      <c r="M42" s="426"/>
+      <c r="N42" s="426" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O42" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P42" s="426"/>
+      <c r="Q42" s="426"/>
+      <c r="R42" s="426"/>
+      <c r="S42" s="426"/>
+      <c r="T42" s="426"/>
+      <c r="U42" s="426"/>
+      <c r="V42" s="426"/>
+      <c r="W42" s="426"/>
+      <c r="X42" s="427"/>
+      <c r="Y42" s="426"/>
+    </row>
+    <row r="43" spans="1:25" s="448" customFormat="1">
+      <c r="A43" s="430"/>
+      <c r="B43" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C43" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D43" s="421"/>
+      <c r="E43" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F43" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G43" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H43" s="426" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I43" s="426"/>
+      <c r="J43" s="426"/>
+      <c r="K43" s="426"/>
+      <c r="L43" s="426"/>
+      <c r="M43" s="426"/>
+      <c r="N43" s="426"/>
+      <c r="O43" s="426"/>
+      <c r="P43" s="426"/>
+      <c r="Q43" s="426"/>
+      <c r="R43" s="426"/>
+      <c r="S43" s="426"/>
+      <c r="T43" s="426"/>
+      <c r="U43" s="426"/>
+      <c r="V43" s="426"/>
+      <c r="W43" s="426"/>
+      <c r="X43" s="427"/>
+      <c r="Y43" s="426"/>
+    </row>
+    <row r="44" spans="1:25" s="448" customFormat="1">
+      <c r="A44" s="430"/>
+      <c r="B44" s="421" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C44" s="421" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D44" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E44" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F44" s="425" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G44" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H44" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I44" s="426"/>
+      <c r="J44" s="426"/>
+      <c r="K44" s="426"/>
+      <c r="L44" s="426"/>
+      <c r="M44" s="426"/>
+      <c r="N44" s="426" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O44" s="426" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P44" s="426"/>
+      <c r="Q44" s="426"/>
+      <c r="R44" s="426"/>
+      <c r="S44" s="426"/>
+      <c r="T44" s="426"/>
+      <c r="U44" s="426"/>
+      <c r="V44" s="426"/>
+      <c r="W44" s="426"/>
+      <c r="X44" s="427"/>
+      <c r="Y44" s="426"/>
+    </row>
+    <row r="45" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A45" s="445" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B45" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C45" s="421" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D45" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E45" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F45" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G45" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H45" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I45" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J45" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K45" s="426"/>
+      <c r="L45" s="426"/>
+      <c r="M45" s="426"/>
+      <c r="N45" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O45" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P45" s="426"/>
+      <c r="Q45" s="426"/>
+      <c r="R45" s="426"/>
+      <c r="S45" s="426"/>
+      <c r="T45" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U45" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V45" s="426"/>
+      <c r="W45" s="418"/>
+      <c r="X45" s="426"/>
+      <c r="Y45" s="426"/>
+    </row>
+    <row r="46" spans="1:25" s="423" customFormat="1">
+      <c r="A46" s="430" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B46" s="421" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C46" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D46" s="421"/>
+      <c r="E46" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F46" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G46" s="426" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H46" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I46" s="426"/>
+      <c r="J46" s="426"/>
+      <c r="K46" s="426"/>
+      <c r="L46" s="426" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M46" s="426"/>
+      <c r="N46" s="426" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O46" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P46" s="426"/>
+      <c r="Q46" s="426"/>
+      <c r="R46" s="426"/>
+      <c r="S46" s="426"/>
+      <c r="T46" s="426"/>
+      <c r="U46" s="426"/>
+      <c r="V46" s="426"/>
+      <c r="W46" s="426"/>
+      <c r="X46" s="426"/>
+      <c r="Y46" s="426"/>
+    </row>
+    <row r="47" spans="1:25" s="423" customFormat="1">
+      <c r="A47" s="430"/>
+      <c r="B47" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C47" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D47" s="421"/>
+      <c r="E47" s="421" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F47" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G47" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H47" s="426" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I47" s="426"/>
+      <c r="J47" s="426"/>
+      <c r="K47" s="426"/>
+      <c r="L47" s="426"/>
+      <c r="M47" s="426"/>
+      <c r="N47" s="426"/>
+      <c r="O47" s="426"/>
+      <c r="P47" s="426"/>
+      <c r="Q47" s="426"/>
+      <c r="R47" s="426"/>
+      <c r="S47" s="426"/>
+      <c r="T47" s="426"/>
+      <c r="U47" s="426"/>
+      <c r="V47" s="426"/>
+      <c r="W47" s="426"/>
+      <c r="X47" s="426"/>
+      <c r="Y47" s="426"/>
+    </row>
+    <row r="48" spans="1:25" s="423" customFormat="1" ht="30.75">
+      <c r="A48" s="430"/>
+      <c r="B48" s="421" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C48" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D48" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E48" s="421" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F48" s="425" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G48" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H48" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I48" s="426"/>
+      <c r="J48" s="426"/>
+      <c r="K48" s="426" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L48" s="426"/>
+      <c r="M48" s="426"/>
+      <c r="N48" s="426" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O48" s="426" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P48" s="426"/>
+      <c r="Q48" s="426"/>
+      <c r="R48" s="426"/>
+      <c r="S48" s="426"/>
+      <c r="T48" s="426"/>
+      <c r="U48" s="426"/>
+      <c r="V48" s="426"/>
+      <c r="W48" s="426"/>
+      <c r="X48" s="427"/>
+      <c r="Y48" s="426"/>
+    </row>
+    <row r="49" spans="1:25" s="423" customFormat="1">
+      <c r="A49" s="430"/>
+      <c r="B49" s="421" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C49" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D49" s="421"/>
+      <c r="E49" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F49" s="425" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G49" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H49" s="426" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I49" s="426"/>
+      <c r="J49" s="426"/>
+      <c r="K49" s="426" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L49" s="426"/>
+      <c r="M49" s="426"/>
+      <c r="N49" s="426" t="s">
+        <v>1666</v>
+      </c>
+      <c r="O49" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P49" s="426"/>
+      <c r="Q49" s="426"/>
+      <c r="R49" s="426"/>
+      <c r="S49" s="426"/>
+      <c r="T49" s="426"/>
+      <c r="U49" s="426"/>
+      <c r="V49" s="426"/>
+      <c r="W49" s="426"/>
+      <c r="X49" s="427"/>
+      <c r="Y49" s="426"/>
+    </row>
+    <row r="50" spans="1:25" s="423" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A50" s="431"/>
+      <c r="B50" s="421" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C50" s="421" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D50" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E50" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F50" s="425" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G50" s="426" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H50" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I50" s="426"/>
+      <c r="J50" s="426"/>
+      <c r="K50" s="426" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L50" s="426"/>
+      <c r="M50" s="426"/>
+      <c r="N50" s="426" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O50" s="426" t="s">
+        <v>1662</v>
+      </c>
+      <c r="P50" s="426"/>
+      <c r="Q50" s="426"/>
+      <c r="R50" s="426"/>
+      <c r="S50" s="426"/>
+      <c r="T50" s="426"/>
+      <c r="U50" s="426"/>
+      <c r="V50" s="426"/>
+      <c r="W50" s="426"/>
+      <c r="X50" s="427"/>
+      <c r="Y50" s="426"/>
+    </row>
+    <row r="51" spans="1:25" s="423" customFormat="1" ht="28.9" thickBot="1">
+      <c r="A51" s="445" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B51" s="445" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C51" s="421" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D51" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E51" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F51" s="429" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G51" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H51" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I51" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J51" s="426" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K51" s="426"/>
+      <c r="L51" s="426"/>
+      <c r="M51" s="426"/>
+      <c r="N51" s="426" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O51" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P51" s="426"/>
+      <c r="Q51" s="426"/>
+      <c r="R51" s="426"/>
+      <c r="S51" s="426"/>
+      <c r="T51" s="426" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U51" s="426" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V51" s="426"/>
+      <c r="W51" s="418"/>
+      <c r="X51" s="426"/>
+      <c r="Y51" s="426"/>
+    </row>
+    <row r="52" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A52" s="445" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B52" s="445" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C52" s="445" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D52" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E52" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F52" s="429"/>
+      <c r="G52" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H52" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I52" s="426"/>
+      <c r="J52" s="426"/>
+      <c r="K52" s="426"/>
+      <c r="L52" s="426"/>
+      <c r="M52" s="426"/>
+      <c r="N52" s="426" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O52" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P52" s="426"/>
+      <c r="Q52" s="426"/>
+      <c r="R52" s="426"/>
+      <c r="S52" s="426"/>
+      <c r="T52" s="426"/>
+      <c r="U52" s="426"/>
+      <c r="V52" s="426"/>
+      <c r="W52" s="418"/>
+      <c r="X52" s="426"/>
+      <c r="Y52" s="426"/>
+    </row>
+    <row r="53" spans="1:25" s="447" customFormat="1" ht="31.15" thickBot="1">
+      <c r="A53" s="445"/>
+      <c r="B53" s="445" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C53" s="445" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D53" s="421" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E53" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F53" s="429"/>
+      <c r="G53" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H53" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I53" s="426"/>
+      <c r="J53" s="426"/>
+      <c r="K53" s="426"/>
+      <c r="L53" s="426"/>
+      <c r="M53" s="426"/>
+      <c r="N53" s="426" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O53" s="426" t="s">
+        <v>1641</v>
+      </c>
+      <c r="P53" s="426"/>
+      <c r="Q53" s="426"/>
+      <c r="R53" s="426"/>
+      <c r="S53" s="426"/>
+      <c r="T53" s="426"/>
+      <c r="U53" s="426"/>
+      <c r="V53" s="426"/>
+      <c r="W53" s="418"/>
+      <c r="X53" s="426"/>
+      <c r="Y53" s="426"/>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A54" s="432" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B54" s="433" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C54" s="433" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D54" s="433" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E54" s="421" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F54" s="429" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G54" s="426" t="s">
+        <v>1616</v>
+      </c>
+      <c r="H54" s="426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I54" s="426"/>
+      <c r="J54" s="426"/>
+      <c r="K54" s="426"/>
+      <c r="L54" s="426"/>
+      <c r="M54" s="426"/>
+      <c r="N54" s="426" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O54" s="426" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P54" s="426" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q54" s="426"/>
+      <c r="R54" s="426"/>
+      <c r="S54" s="426"/>
+      <c r="T54" s="426"/>
+      <c r="U54" s="426"/>
+      <c r="V54" s="426"/>
+      <c r="W54" s="418"/>
+      <c r="X54" s="426"/>
+      <c r="Y54" s="426"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="434"/>
+      <c r="B55" s="435"/>
+      <c r="C55" s="433"/>
+      <c r="D55" s="433"/>
+      <c r="E55" s="433"/>
+      <c r="F55" s="429"/>
+      <c r="G55" s="426"/>
+      <c r="H55" s="426"/>
+      <c r="I55" s="426"/>
+      <c r="J55" s="426"/>
+      <c r="K55" s="426"/>
+      <c r="L55" s="426"/>
+      <c r="M55" s="426"/>
+      <c r="N55" s="426"/>
+      <c r="O55" s="426"/>
+      <c r="P55" s="426"/>
+      <c r="Q55" s="426"/>
+      <c r="R55" s="426"/>
+      <c r="S55" s="426"/>
+      <c r="T55" s="426"/>
+      <c r="U55" s="426"/>
+      <c r="V55" s="426"/>
+      <c r="W55" s="426"/>
+      <c r="X55" s="426"/>
+      <c r="Y55" s="426"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="436"/>
+      <c r="B56" s="436"/>
+      <c r="C56" s="421"/>
+      <c r="D56" s="421"/>
+      <c r="E56" s="421"/>
+      <c r="F56" s="429"/>
+      <c r="G56" s="426"/>
+      <c r="H56" s="426"/>
+      <c r="I56" s="426"/>
+      <c r="J56" s="426"/>
+      <c r="K56" s="426"/>
+      <c r="L56" s="426"/>
+      <c r="M56" s="426"/>
+      <c r="N56" s="426"/>
+      <c r="O56" s="426"/>
+      <c r="P56" s="426"/>
+      <c r="Q56" s="426"/>
+      <c r="R56" s="426"/>
+      <c r="S56" s="426"/>
+      <c r="T56" s="426"/>
+      <c r="U56" s="426"/>
+      <c r="V56" s="426"/>
+      <c r="W56" s="426"/>
+      <c r="X56" s="426"/>
+      <c r="Y56" s="426"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="436"/>
+      <c r="B57" s="435"/>
+      <c r="C57" s="433"/>
+      <c r="D57" s="433"/>
+      <c r="E57" s="433"/>
+      <c r="F57" s="429"/>
+      <c r="G57" s="426"/>
+      <c r="H57" s="426"/>
+      <c r="I57" s="426"/>
+      <c r="J57" s="426"/>
+      <c r="K57" s="426"/>
+      <c r="L57" s="426"/>
+      <c r="M57" s="426"/>
+      <c r="N57" s="426"/>
+      <c r="O57" s="426"/>
+      <c r="P57" s="426"/>
+      <c r="Q57" s="426"/>
+      <c r="R57" s="426"/>
+      <c r="S57" s="426"/>
+      <c r="T57" s="426"/>
+      <c r="U57" s="426"/>
+      <c r="V57" s="426"/>
+      <c r="W57" s="426"/>
+      <c r="X57" s="426"/>
+      <c r="Y57" s="437"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="436"/>
+      <c r="B58" s="436"/>
+      <c r="C58" s="421"/>
+      <c r="D58" s="421"/>
+      <c r="E58" s="421"/>
+      <c r="F58" s="429"/>
+      <c r="G58" s="426"/>
+      <c r="H58" s="426"/>
+      <c r="I58" s="426"/>
+      <c r="J58" s="426"/>
+      <c r="K58" s="426"/>
+      <c r="L58" s="426"/>
+      <c r="M58" s="426"/>
+      <c r="N58" s="426"/>
+      <c r="O58" s="426"/>
+      <c r="P58" s="426"/>
+      <c r="Q58" s="426"/>
+      <c r="R58" s="426"/>
+      <c r="S58" s="426"/>
+      <c r="T58" s="426"/>
+      <c r="U58" s="426"/>
+      <c r="V58" s="426"/>
+      <c r="W58" s="426"/>
+      <c r="X58" s="426"/>
+      <c r="Y58" s="437"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="436"/>
+      <c r="B59" s="436"/>
+      <c r="C59" s="421"/>
+      <c r="D59" s="421"/>
+      <c r="E59" s="421"/>
+      <c r="F59" s="429"/>
+      <c r="G59" s="426"/>
+      <c r="H59" s="426"/>
+      <c r="I59" s="426"/>
+      <c r="J59" s="426"/>
+      <c r="K59" s="426"/>
+      <c r="L59" s="426"/>
+      <c r="M59" s="426"/>
+      <c r="N59" s="426"/>
+      <c r="O59" s="426"/>
+      <c r="P59" s="426"/>
+      <c r="Q59" s="426"/>
+      <c r="R59" s="426"/>
+      <c r="S59" s="426"/>
+      <c r="T59" s="426"/>
+      <c r="U59" s="426"/>
+      <c r="V59" s="426"/>
+      <c r="W59" s="426"/>
+      <c r="X59" s="426"/>
+      <c r="Y59" s="437"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="436"/>
+      <c r="B60" s="436"/>
+      <c r="C60" s="421"/>
+      <c r="D60" s="421"/>
+      <c r="E60" s="421"/>
+      <c r="F60" s="429"/>
+      <c r="G60" s="426"/>
+      <c r="H60" s="426"/>
+      <c r="I60" s="426"/>
+      <c r="J60" s="426"/>
+      <c r="K60" s="426"/>
+      <c r="L60" s="426"/>
+      <c r="M60" s="426"/>
+      <c r="N60" s="426"/>
+      <c r="O60" s="426"/>
+      <c r="P60" s="426"/>
+      <c r="Q60" s="426"/>
+      <c r="R60" s="426"/>
+      <c r="S60" s="426"/>
+      <c r="T60" s="426"/>
+      <c r="U60" s="426"/>
+      <c r="V60" s="426"/>
+      <c r="W60" s="426"/>
+      <c r="X60" s="426"/>
+      <c r="Y60" s="437"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="436"/>
+      <c r="B61" s="436"/>
+      <c r="C61" s="421"/>
+      <c r="D61" s="421"/>
+      <c r="E61" s="421"/>
+      <c r="F61" s="429"/>
+      <c r="G61" s="426"/>
+      <c r="H61" s="426"/>
+      <c r="I61" s="426"/>
+      <c r="J61" s="426"/>
+      <c r="K61" s="426"/>
+      <c r="L61" s="426"/>
+      <c r="M61" s="426"/>
+      <c r="N61" s="426"/>
+      <c r="O61" s="426"/>
+      <c r="P61" s="426"/>
+      <c r="Q61" s="426"/>
+      <c r="R61" s="426"/>
+      <c r="S61" s="426"/>
+      <c r="T61" s="426"/>
+      <c r="U61" s="426"/>
+      <c r="V61" s="426"/>
+      <c r="W61" s="426"/>
+      <c r="X61" s="426"/>
+      <c r="Y61" s="437"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="436"/>
+      <c r="B62" s="436"/>
+      <c r="C62" s="421"/>
+      <c r="D62" s="421"/>
+      <c r="E62" s="421"/>
+      <c r="F62" s="429"/>
+      <c r="G62" s="426"/>
+      <c r="H62" s="426"/>
+      <c r="I62" s="426"/>
+      <c r="J62" s="426"/>
+      <c r="K62" s="426"/>
+      <c r="L62" s="426"/>
+      <c r="M62" s="426"/>
+      <c r="N62" s="426"/>
+      <c r="O62" s="426"/>
+      <c r="P62" s="426"/>
+      <c r="Q62" s="426"/>
+      <c r="R62" s="426"/>
+      <c r="S62" s="426"/>
+      <c r="T62" s="426"/>
+      <c r="U62" s="426"/>
+      <c r="V62" s="426"/>
+      <c r="W62" s="426"/>
+      <c r="X62" s="426"/>
+      <c r="Y62" s="437"/>
+    </row>
+    <row r="63" spans="1:25" s="439" customFormat="1">
+      <c r="A63" s="436"/>
+      <c r="B63" s="436"/>
+      <c r="C63" s="421"/>
+      <c r="D63" s="421"/>
+      <c r="E63" s="421"/>
+      <c r="F63" s="438"/>
+      <c r="G63" s="426"/>
+      <c r="H63" s="426"/>
+      <c r="I63" s="426"/>
+      <c r="J63" s="426"/>
+      <c r="K63" s="426"/>
+      <c r="L63" s="426"/>
+      <c r="M63" s="426"/>
+      <c r="N63" s="426"/>
+      <c r="O63" s="437"/>
+      <c r="P63" s="437"/>
+      <c r="Q63" s="437"/>
+      <c r="R63" s="437"/>
+      <c r="S63" s="426"/>
+      <c r="T63" s="426"/>
+      <c r="U63" s="426"/>
+      <c r="V63" s="426"/>
+      <c r="W63" s="426"/>
+      <c r="X63" s="426"/>
+      <c r="Y63" s="437"/>
+    </row>
+    <row r="64" spans="1:25" s="439" customFormat="1">
+      <c r="A64" s="436"/>
+      <c r="B64" s="435"/>
+      <c r="C64" s="433"/>
+      <c r="D64" s="433"/>
+      <c r="E64" s="433"/>
+      <c r="F64" s="438"/>
+      <c r="G64" s="426"/>
+      <c r="H64" s="426"/>
+      <c r="I64" s="426"/>
+      <c r="J64" s="426"/>
+      <c r="K64" s="426"/>
+      <c r="L64" s="426"/>
+      <c r="M64" s="426"/>
+      <c r="N64" s="426"/>
+      <c r="O64" s="437"/>
+      <c r="P64" s="437"/>
+      <c r="Q64" s="437"/>
+      <c r="R64" s="437"/>
+      <c r="S64" s="426"/>
+      <c r="T64" s="426"/>
+      <c r="U64" s="426"/>
+      <c r="V64" s="426"/>
+      <c r="W64" s="426"/>
+      <c r="X64" s="426"/>
+      <c r="Y64" s="426"/>
+    </row>
+    <row r="65" spans="1:25" s="439" customFormat="1">
+      <c r="A65" s="436"/>
+      <c r="B65" s="435"/>
+      <c r="C65" s="433"/>
+      <c r="D65" s="433"/>
+      <c r="E65" s="433"/>
+      <c r="F65" s="438"/>
+      <c r="G65" s="426"/>
+      <c r="H65" s="426"/>
+      <c r="I65" s="426"/>
+      <c r="J65" s="426"/>
+      <c r="K65" s="426"/>
+      <c r="L65" s="426"/>
+      <c r="M65" s="426"/>
+      <c r="N65" s="437"/>
+      <c r="O65" s="437"/>
+      <c r="P65" s="437"/>
+      <c r="Q65" s="437"/>
+      <c r="R65" s="437"/>
+      <c r="S65" s="426"/>
+      <c r="T65" s="426"/>
+      <c r="U65" s="426"/>
+      <c r="V65" s="426"/>
+      <c r="W65" s="426"/>
+      <c r="X65" s="426"/>
+      <c r="Y65" s="426"/>
+    </row>
+    <row r="66" spans="1:25" s="439" customFormat="1">
+      <c r="A66" s="436"/>
+      <c r="B66" s="435"/>
+      <c r="C66" s="433"/>
+      <c r="D66" s="433"/>
+      <c r="E66" s="433"/>
+      <c r="F66" s="438"/>
+      <c r="G66" s="426"/>
+      <c r="H66" s="426"/>
+      <c r="I66" s="426"/>
+      <c r="J66" s="426"/>
+      <c r="K66" s="426"/>
+      <c r="L66" s="426"/>
+      <c r="M66" s="426"/>
+      <c r="N66" s="437"/>
+      <c r="O66" s="437"/>
+      <c r="P66" s="437"/>
+      <c r="Q66" s="437"/>
+      <c r="R66" s="437"/>
+      <c r="S66" s="426"/>
+      <c r="T66" s="426"/>
+      <c r="U66" s="426"/>
+      <c r="V66" s="426"/>
+      <c r="W66" s="426"/>
+      <c r="X66" s="426"/>
+      <c r="Y66" s="426"/>
+    </row>
+    <row r="67" spans="1:25" s="439" customFormat="1">
+      <c r="A67" s="436"/>
+      <c r="B67" s="436"/>
+      <c r="C67" s="421"/>
+      <c r="D67" s="421"/>
+      <c r="E67" s="421"/>
+      <c r="F67" s="438"/>
+      <c r="G67" s="426"/>
+      <c r="H67" s="426"/>
+      <c r="I67" s="426"/>
+      <c r="J67" s="426"/>
+      <c r="K67" s="426"/>
+      <c r="L67" s="426"/>
+      <c r="M67" s="426"/>
+      <c r="N67" s="426"/>
+      <c r="O67" s="437"/>
+      <c r="P67" s="437"/>
+      <c r="Q67" s="437"/>
+      <c r="R67" s="437"/>
+      <c r="S67" s="426"/>
+      <c r="T67" s="426"/>
+      <c r="U67" s="426"/>
+      <c r="V67" s="426"/>
+      <c r="W67" s="426"/>
+      <c r="X67" s="426"/>
+      <c r="Y67" s="426"/>
+    </row>
+    <row r="68" spans="1:25" s="439" customFormat="1">
+      <c r="A68" s="436"/>
+      <c r="B68" s="436"/>
+      <c r="C68" s="421"/>
+      <c r="D68" s="421"/>
+      <c r="E68" s="421"/>
+      <c r="F68" s="438"/>
+      <c r="G68" s="426"/>
+      <c r="H68" s="426"/>
+      <c r="I68" s="426"/>
+      <c r="J68" s="426"/>
+      <c r="K68" s="426"/>
+      <c r="L68" s="426"/>
+      <c r="M68" s="426"/>
+      <c r="N68" s="426"/>
+      <c r="O68" s="437"/>
+      <c r="P68" s="437"/>
+      <c r="Q68" s="437"/>
+      <c r="R68" s="437"/>
+      <c r="S68" s="426"/>
+      <c r="T68" s="426"/>
+      <c r="U68" s="426"/>
+      <c r="V68" s="426"/>
+      <c r="W68" s="426"/>
+      <c r="X68" s="426"/>
+      <c r="Y68" s="426"/>
+    </row>
+    <row r="69" spans="1:25" s="439" customFormat="1">
+      <c r="A69" s="436"/>
+      <c r="B69" s="435"/>
+      <c r="C69" s="433"/>
+      <c r="D69" s="433"/>
+      <c r="E69" s="433"/>
+      <c r="F69" s="438"/>
+      <c r="G69" s="426"/>
+      <c r="H69" s="426"/>
+      <c r="I69" s="426"/>
+      <c r="J69" s="426"/>
+      <c r="K69" s="426"/>
+      <c r="L69" s="426"/>
+      <c r="M69" s="426"/>
+      <c r="N69" s="437"/>
+      <c r="O69" s="426"/>
+      <c r="P69" s="437"/>
+      <c r="Q69" s="437"/>
+      <c r="R69" s="437"/>
+      <c r="S69" s="426"/>
+      <c r="T69" s="426"/>
+      <c r="U69" s="426"/>
+      <c r="V69" s="426"/>
+      <c r="W69" s="426"/>
+      <c r="X69" s="426"/>
+      <c r="Y69" s="426"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="436"/>
+      <c r="B70" s="435"/>
+      <c r="C70" s="433"/>
+      <c r="D70" s="433"/>
+      <c r="E70" s="433"/>
+      <c r="F70" s="429"/>
+      <c r="G70" s="426"/>
+      <c r="H70" s="426"/>
+      <c r="I70" s="426"/>
+      <c r="J70" s="426"/>
+      <c r="K70" s="426"/>
+      <c r="L70" s="426"/>
+      <c r="M70" s="426"/>
+      <c r="N70" s="426"/>
+      <c r="O70" s="426"/>
+      <c r="P70" s="426"/>
+      <c r="Q70" s="426"/>
+      <c r="R70" s="426"/>
+      <c r="S70" s="426"/>
+      <c r="T70" s="426"/>
+      <c r="U70" s="426"/>
+      <c r="V70" s="426"/>
+      <c r="W70" s="426"/>
+      <c r="X70" s="426"/>
+      <c r="Y70" s="426"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="436"/>
+      <c r="B71" s="435"/>
+      <c r="C71" s="433"/>
+      <c r="D71" s="433"/>
+      <c r="E71" s="433"/>
+      <c r="F71" s="429"/>
+      <c r="G71" s="426"/>
+      <c r="H71" s="426"/>
+      <c r="I71" s="426"/>
+      <c r="J71" s="426"/>
+      <c r="K71" s="426"/>
+      <c r="L71" s="426"/>
+      <c r="M71" s="426"/>
+      <c r="N71" s="426"/>
+      <c r="O71" s="426"/>
+      <c r="P71" s="426"/>
+      <c r="Q71" s="426"/>
+      <c r="R71" s="426"/>
+      <c r="S71" s="426"/>
+      <c r="T71" s="426"/>
+      <c r="U71" s="426"/>
+      <c r="V71" s="426"/>
+      <c r="W71" s="426"/>
+      <c r="X71" s="426"/>
+      <c r="Y71" s="426"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="436"/>
+      <c r="B72" s="436"/>
+      <c r="C72" s="421"/>
+      <c r="D72" s="421"/>
+      <c r="E72" s="421"/>
+      <c r="F72" s="429"/>
+      <c r="G72" s="426"/>
+      <c r="H72" s="426"/>
+      <c r="I72" s="426"/>
+      <c r="J72" s="426"/>
+      <c r="K72" s="426"/>
+      <c r="L72" s="426"/>
+      <c r="M72" s="426"/>
+      <c r="N72" s="426"/>
+      <c r="O72" s="426"/>
+      <c r="P72" s="426"/>
+      <c r="Q72" s="426"/>
+      <c r="R72" s="426"/>
+      <c r="S72" s="426"/>
+      <c r="T72" s="426"/>
+      <c r="U72" s="426"/>
+      <c r="V72" s="426"/>
+      <c r="W72" s="426"/>
+      <c r="X72" s="426"/>
+      <c r="Y72" s="426"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="436"/>
+      <c r="B73" s="436"/>
+      <c r="C73" s="421"/>
+      <c r="D73" s="421"/>
+      <c r="E73" s="421"/>
+      <c r="F73" s="429"/>
+      <c r="G73" s="426"/>
+      <c r="H73" s="426"/>
+      <c r="I73" s="426"/>
+      <c r="J73" s="426"/>
+      <c r="K73" s="426"/>
+      <c r="L73" s="426"/>
+      <c r="M73" s="426"/>
+      <c r="N73" s="426"/>
+      <c r="O73" s="426"/>
+      <c r="P73" s="426"/>
+      <c r="Q73" s="426"/>
+      <c r="R73" s="426"/>
+      <c r="S73" s="426"/>
+      <c r="T73" s="426"/>
+      <c r="U73" s="426"/>
+      <c r="V73" s="426"/>
+      <c r="W73" s="426"/>
+      <c r="X73" s="426"/>
+      <c r="Y73" s="426"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="436"/>
+      <c r="B74" s="435"/>
+      <c r="C74" s="433"/>
+      <c r="D74" s="433"/>
+      <c r="E74" s="433"/>
+      <c r="F74" s="429"/>
+      <c r="G74" s="426"/>
+      <c r="H74" s="426"/>
+      <c r="I74" s="426"/>
+      <c r="J74" s="426"/>
+      <c r="K74" s="426"/>
+      <c r="L74" s="426"/>
+      <c r="M74" s="426"/>
+      <c r="N74" s="426"/>
+      <c r="O74" s="426"/>
+      <c r="P74" s="426"/>
+      <c r="Q74" s="426"/>
+      <c r="R74" s="426"/>
+      <c r="S74" s="426"/>
+      <c r="T74" s="426"/>
+      <c r="U74" s="426"/>
+      <c r="V74" s="426"/>
+      <c r="W74" s="426"/>
+      <c r="X74" s="426"/>
+      <c r="Y74" s="426"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="436"/>
+      <c r="B75" s="435"/>
+      <c r="C75" s="433"/>
+      <c r="D75" s="433"/>
+      <c r="E75" s="433"/>
+      <c r="F75" s="429"/>
+      <c r="G75" s="426"/>
+      <c r="H75" s="426"/>
+      <c r="I75" s="426"/>
+      <c r="J75" s="426"/>
+      <c r="K75" s="426"/>
+      <c r="L75" s="426"/>
+      <c r="M75" s="426"/>
+      <c r="N75" s="426"/>
+      <c r="O75" s="426"/>
+      <c r="P75" s="426"/>
+      <c r="Q75" s="426"/>
+      <c r="R75" s="426"/>
+      <c r="S75" s="426"/>
+      <c r="T75" s="426"/>
+      <c r="U75" s="426"/>
+      <c r="V75" s="426"/>
+      <c r="W75" s="426"/>
+      <c r="X75" s="426"/>
+      <c r="Y75" s="426"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="436"/>
+      <c r="B76" s="435"/>
+      <c r="C76" s="433"/>
+      <c r="D76" s="433"/>
+      <c r="E76" s="433"/>
+      <c r="F76" s="429"/>
+      <c r="G76" s="426"/>
+      <c r="H76" s="426"/>
+      <c r="I76" s="426"/>
+      <c r="J76" s="426"/>
+      <c r="K76" s="426"/>
+      <c r="L76" s="426"/>
+      <c r="M76" s="426"/>
+      <c r="N76" s="426"/>
+      <c r="O76" s="426"/>
+      <c r="P76" s="426"/>
+      <c r="Q76" s="426"/>
+      <c r="R76" s="426"/>
+      <c r="S76" s="426"/>
+      <c r="T76" s="426"/>
+      <c r="U76" s="426"/>
+      <c r="V76" s="426"/>
+      <c r="W76" s="426"/>
+      <c r="X76" s="426"/>
+      <c r="Y76" s="426"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="436"/>
+      <c r="B77" s="435"/>
+      <c r="C77" s="433"/>
+      <c r="D77" s="433"/>
+      <c r="E77" s="433"/>
+      <c r="F77" s="429"/>
+      <c r="G77" s="426"/>
+      <c r="H77" s="426"/>
+      <c r="I77" s="426"/>
+      <c r="J77" s="426"/>
+      <c r="K77" s="426"/>
+      <c r="L77" s="426"/>
+      <c r="M77" s="426"/>
+      <c r="N77" s="426"/>
+      <c r="O77" s="426"/>
+      <c r="P77" s="426"/>
+      <c r="Q77" s="426"/>
+      <c r="R77" s="426"/>
+      <c r="S77" s="426"/>
+      <c r="T77" s="426"/>
+      <c r="U77" s="426"/>
+      <c r="V77" s="426"/>
+      <c r="W77" s="426"/>
+      <c r="X77" s="426"/>
+      <c r="Y77" s="426"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="436"/>
+      <c r="B78" s="435"/>
+      <c r="C78" s="433"/>
+      <c r="D78" s="433"/>
+      <c r="E78" s="433"/>
+      <c r="F78" s="429"/>
+      <c r="G78" s="426"/>
+      <c r="H78" s="426"/>
+      <c r="I78" s="426"/>
+      <c r="J78" s="426"/>
+      <c r="K78" s="426"/>
+      <c r="L78" s="426"/>
+      <c r="M78" s="426"/>
+      <c r="N78" s="426"/>
+      <c r="O78" s="426"/>
+      <c r="P78" s="426"/>
+      <c r="Q78" s="426"/>
+      <c r="R78" s="426"/>
+      <c r="S78" s="426"/>
+      <c r="T78" s="426"/>
+      <c r="U78" s="426"/>
+      <c r="V78" s="426"/>
+      <c r="W78" s="426"/>
+      <c r="X78" s="426"/>
+      <c r="Y78" s="426"/>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="436"/>
+      <c r="B79" s="435"/>
+      <c r="C79" s="433"/>
+      <c r="D79" s="433"/>
+      <c r="E79" s="433"/>
+      <c r="F79" s="429"/>
+      <c r="G79" s="426"/>
+      <c r="H79" s="426"/>
+      <c r="I79" s="426"/>
+      <c r="J79" s="426"/>
+      <c r="K79" s="426"/>
+      <c r="L79" s="426"/>
+      <c r="M79" s="426"/>
+      <c r="N79" s="426"/>
+      <c r="O79" s="426"/>
+      <c r="P79" s="426"/>
+      <c r="Q79" s="426"/>
+      <c r="R79" s="426"/>
+      <c r="S79" s="426"/>
+      <c r="T79" s="426"/>
+      <c r="U79" s="426"/>
+      <c r="V79" s="426"/>
+      <c r="W79" s="426"/>
+      <c r="X79" s="426"/>
+      <c r="Y79" s="426"/>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="436"/>
+      <c r="B80" s="435"/>
+      <c r="C80" s="433"/>
+      <c r="D80" s="433"/>
+      <c r="E80" s="433"/>
+      <c r="F80" s="429"/>
+      <c r="G80" s="426"/>
+      <c r="H80" s="426"/>
+      <c r="I80" s="426"/>
+      <c r="J80" s="426"/>
+      <c r="K80" s="426"/>
+      <c r="L80" s="426"/>
+      <c r="M80" s="426"/>
+      <c r="N80" s="426"/>
+      <c r="O80" s="426"/>
+      <c r="P80" s="426"/>
+      <c r="Q80" s="426"/>
+      <c r="R80" s="426"/>
+      <c r="S80" s="426"/>
+      <c r="T80" s="426"/>
+      <c r="U80" s="426"/>
+      <c r="V80" s="426"/>
+      <c r="W80" s="426"/>
+      <c r="X80" s="426"/>
+      <c r="Y80" s="426"/>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="436"/>
+      <c r="B81" s="435"/>
+      <c r="C81" s="433"/>
+      <c r="D81" s="433"/>
+      <c r="E81" s="433"/>
+      <c r="F81" s="429"/>
+      <c r="G81" s="426"/>
+      <c r="H81" s="426"/>
+      <c r="I81" s="426"/>
+      <c r="J81" s="426"/>
+      <c r="K81" s="426"/>
+      <c r="L81" s="426"/>
+      <c r="M81" s="426"/>
+      <c r="N81" s="426"/>
+      <c r="O81" s="426"/>
+      <c r="P81" s="426"/>
+      <c r="Q81" s="426"/>
+      <c r="R81" s="426"/>
+      <c r="S81" s="426"/>
+      <c r="T81" s="426"/>
+      <c r="U81" s="426"/>
+      <c r="V81" s="426"/>
+      <c r="W81" s="426"/>
+      <c r="X81" s="426"/>
+      <c r="Y81" s="426"/>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="436"/>
+      <c r="B82" s="435"/>
+      <c r="C82" s="433"/>
+      <c r="D82" s="433"/>
+      <c r="E82" s="433"/>
+      <c r="F82" s="429"/>
+      <c r="G82" s="426"/>
+      <c r="H82" s="426"/>
+      <c r="I82" s="426"/>
+      <c r="J82" s="426"/>
+      <c r="K82" s="426"/>
+      <c r="L82" s="426"/>
+      <c r="M82" s="426"/>
+      <c r="N82" s="426"/>
+      <c r="O82" s="426"/>
+      <c r="P82" s="426"/>
+      <c r="Q82" s="426"/>
+      <c r="R82" s="426"/>
+      <c r="S82" s="426"/>
+      <c r="T82" s="426"/>
+      <c r="U82" s="426"/>
+      <c r="V82" s="426"/>
+      <c r="W82" s="426"/>
+      <c r="X82" s="426"/>
+      <c r="Y82" s="426"/>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="436"/>
+      <c r="B83" s="435"/>
+      <c r="C83" s="433"/>
+      <c r="D83" s="433"/>
+      <c r="E83" s="433"/>
+      <c r="F83" s="429"/>
+      <c r="G83" s="426"/>
+      <c r="H83" s="426"/>
+      <c r="I83" s="426"/>
+      <c r="J83" s="426"/>
+      <c r="K83" s="426"/>
+      <c r="L83" s="426"/>
+      <c r="M83" s="426"/>
+      <c r="N83" s="426"/>
+      <c r="O83" s="426"/>
+      <c r="P83" s="426"/>
+      <c r="Q83" s="426"/>
+      <c r="R83" s="426"/>
+      <c r="S83" s="426"/>
+      <c r="T83" s="426"/>
+      <c r="U83" s="426"/>
+      <c r="V83" s="426"/>
+      <c r="W83" s="426"/>
+      <c r="X83" s="426"/>
+      <c r="Y83" s="426"/>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="436"/>
+      <c r="B84" s="435"/>
+      <c r="C84" s="433"/>
+      <c r="D84" s="433"/>
+      <c r="E84" s="433"/>
+      <c r="F84" s="429"/>
+      <c r="G84" s="426"/>
+      <c r="H84" s="426"/>
+      <c r="I84" s="426"/>
+      <c r="J84" s="426"/>
+      <c r="K84" s="426"/>
+      <c r="L84" s="426"/>
+      <c r="M84" s="426"/>
+      <c r="N84" s="426"/>
+      <c r="O84" s="426"/>
+      <c r="P84" s="426"/>
+      <c r="Q84" s="426"/>
+      <c r="R84" s="426"/>
+      <c r="S84" s="426"/>
+      <c r="T84" s="426"/>
+      <c r="U84" s="426"/>
+      <c r="V84" s="426"/>
+      <c r="W84" s="426"/>
+      <c r="X84" s="426"/>
+      <c r="Y84" s="426"/>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="436"/>
+      <c r="B85" s="435"/>
+      <c r="C85" s="433"/>
+      <c r="D85" s="433"/>
+      <c r="E85" s="433"/>
+      <c r="F85" s="429"/>
+      <c r="G85" s="426"/>
+      <c r="H85" s="426"/>
+      <c r="I85" s="426"/>
+      <c r="J85" s="426"/>
+      <c r="K85" s="426"/>
+      <c r="L85" s="426"/>
+      <c r="M85" s="426"/>
+      <c r="N85" s="426"/>
+      <c r="O85" s="426"/>
+      <c r="P85" s="426"/>
+      <c r="Q85" s="426"/>
+      <c r="R85" s="426"/>
+      <c r="S85" s="426"/>
+      <c r="T85" s="426"/>
+      <c r="U85" s="426"/>
+      <c r="V85" s="426"/>
+      <c r="W85" s="426"/>
+      <c r="X85" s="426"/>
+      <c r="Y85" s="426"/>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="436"/>
+      <c r="B86" s="435"/>
+      <c r="C86" s="433"/>
+      <c r="D86" s="433"/>
+      <c r="E86" s="433"/>
+      <c r="F86" s="429"/>
+      <c r="G86" s="426"/>
+      <c r="H86" s="426"/>
+      <c r="I86" s="426"/>
+      <c r="J86" s="426"/>
+      <c r="K86" s="426"/>
+      <c r="L86" s="426"/>
+      <c r="M86" s="426"/>
+      <c r="N86" s="426"/>
+      <c r="O86" s="426"/>
+      <c r="P86" s="426"/>
+      <c r="Q86" s="426"/>
+      <c r="R86" s="426"/>
+      <c r="S86" s="426"/>
+      <c r="T86" s="426"/>
+      <c r="U86" s="426"/>
+      <c r="V86" s="426"/>
+      <c r="W86" s="426"/>
+      <c r="X86" s="426"/>
+      <c r="Y86" s="426"/>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="436"/>
+      <c r="B87" s="435"/>
+      <c r="C87" s="433"/>
+      <c r="D87" s="433"/>
+      <c r="E87" s="433"/>
+      <c r="F87" s="429"/>
+      <c r="G87" s="426"/>
+      <c r="H87" s="426"/>
+      <c r="I87" s="426"/>
+      <c r="J87" s="426"/>
+      <c r="K87" s="426"/>
+      <c r="L87" s="426"/>
+      <c r="M87" s="426"/>
+      <c r="N87" s="426"/>
+      <c r="O87" s="426"/>
+      <c r="P87" s="426"/>
+      <c r="Q87" s="426"/>
+      <c r="R87" s="426"/>
+      <c r="S87" s="426"/>
+      <c r="T87" s="426"/>
+      <c r="U87" s="426"/>
+      <c r="V87" s="426"/>
+      <c r="W87" s="426"/>
+      <c r="X87" s="426"/>
+      <c r="Y87" s="426"/>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="436"/>
+      <c r="B88" s="435"/>
+      <c r="C88" s="433"/>
+      <c r="D88" s="433"/>
+      <c r="E88" s="433"/>
+      <c r="F88" s="429"/>
+      <c r="G88" s="426"/>
+      <c r="H88" s="426"/>
+      <c r="I88" s="426"/>
+      <c r="J88" s="426"/>
+      <c r="K88" s="426"/>
+      <c r="L88" s="426"/>
+      <c r="M88" s="426"/>
+      <c r="N88" s="426"/>
+      <c r="O88" s="426"/>
+      <c r="P88" s="426"/>
+      <c r="Q88" s="426"/>
+      <c r="R88" s="426"/>
+      <c r="S88" s="426"/>
+      <c r="T88" s="426"/>
+      <c r="U88" s="426"/>
+      <c r="V88" s="426"/>
+      <c r="W88" s="426"/>
+      <c r="X88" s="426"/>
+      <c r="Y88" s="426"/>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="436"/>
+      <c r="B89" s="435"/>
+      <c r="C89" s="433"/>
+      <c r="D89" s="433"/>
+      <c r="E89" s="433"/>
+      <c r="F89" s="429"/>
+      <c r="G89" s="426"/>
+      <c r="H89" s="426"/>
+      <c r="I89" s="426"/>
+      <c r="J89" s="426"/>
+      <c r="K89" s="426"/>
+      <c r="L89" s="426"/>
+      <c r="M89" s="426"/>
+      <c r="N89" s="426"/>
+      <c r="O89" s="426"/>
+      <c r="P89" s="426"/>
+      <c r="Q89" s="426"/>
+      <c r="R89" s="426"/>
+      <c r="S89" s="426"/>
+      <c r="T89" s="426"/>
+      <c r="U89" s="426"/>
+      <c r="V89" s="426"/>
+      <c r="W89" s="426"/>
+      <c r="X89" s="426"/>
+      <c r="Y89" s="426"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="436"/>
+      <c r="B90" s="435"/>
+      <c r="C90" s="433"/>
+      <c r="D90" s="433"/>
+      <c r="E90" s="433"/>
+      <c r="F90" s="429"/>
+      <c r="G90" s="426"/>
+      <c r="H90" s="426"/>
+      <c r="I90" s="426"/>
+      <c r="J90" s="426"/>
+      <c r="K90" s="426"/>
+      <c r="L90" s="426"/>
+      <c r="M90" s="426"/>
+      <c r="N90" s="426"/>
+      <c r="O90" s="426"/>
+      <c r="P90" s="426"/>
+      <c r="Q90" s="426"/>
+      <c r="R90" s="426"/>
+      <c r="S90" s="426"/>
+      <c r="T90" s="426"/>
+      <c r="U90" s="426"/>
+      <c r="V90" s="426"/>
+      <c r="W90" s="426"/>
+      <c r="X90" s="426"/>
+      <c r="Y90" s="426"/>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="436"/>
+      <c r="B91" s="435"/>
+      <c r="C91" s="433"/>
+      <c r="D91" s="433"/>
+      <c r="E91" s="433"/>
+      <c r="F91" s="429"/>
+      <c r="G91" s="426"/>
+      <c r="H91" s="426"/>
+      <c r="I91" s="426"/>
+      <c r="J91" s="426"/>
+      <c r="K91" s="426"/>
+      <c r="L91" s="426"/>
+      <c r="M91" s="426"/>
+      <c r="N91" s="426"/>
+      <c r="O91" s="426"/>
+      <c r="P91" s="426"/>
+      <c r="Q91" s="426"/>
+      <c r="R91" s="426"/>
+      <c r="S91" s="426"/>
+      <c r="T91" s="426"/>
+      <c r="U91" s="426"/>
+      <c r="V91" s="426"/>
+      <c r="W91" s="426"/>
+      <c r="X91" s="426"/>
+      <c r="Y91" s="426"/>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="436"/>
+      <c r="B92" s="435"/>
+      <c r="C92" s="433"/>
+      <c r="D92" s="433"/>
+      <c r="E92" s="433"/>
+      <c r="F92" s="429"/>
+      <c r="G92" s="426"/>
+      <c r="H92" s="426"/>
+      <c r="I92" s="426"/>
+      <c r="J92" s="426"/>
+      <c r="K92" s="426"/>
+      <c r="L92" s="426"/>
+      <c r="M92" s="426"/>
+      <c r="N92" s="426"/>
+      <c r="O92" s="426"/>
+      <c r="P92" s="426"/>
+      <c r="Q92" s="426"/>
+      <c r="R92" s="426"/>
+      <c r="S92" s="426"/>
+      <c r="T92" s="426"/>
+      <c r="U92" s="426"/>
+      <c r="V92" s="426"/>
+      <c r="W92" s="426"/>
+      <c r="X92" s="426"/>
+      <c r="Y92" s="426"/>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="436"/>
+      <c r="B93" s="435"/>
+      <c r="C93" s="433"/>
+      <c r="D93" s="433"/>
+      <c r="E93" s="433"/>
+      <c r="F93" s="429"/>
+      <c r="G93" s="426"/>
+      <c r="H93" s="426"/>
+      <c r="I93" s="426"/>
+      <c r="J93" s="426"/>
+      <c r="K93" s="426"/>
+      <c r="L93" s="426"/>
+      <c r="M93" s="426"/>
+      <c r="N93" s="426"/>
+      <c r="O93" s="426"/>
+      <c r="P93" s="426"/>
+      <c r="Q93" s="426"/>
+      <c r="R93" s="426"/>
+      <c r="S93" s="426"/>
+      <c r="T93" s="426"/>
+      <c r="U93" s="426"/>
+      <c r="V93" s="426"/>
+      <c r="W93" s="426"/>
+      <c r="X93" s="426"/>
+      <c r="Y93" s="426"/>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="436"/>
+      <c r="B94" s="435"/>
+      <c r="C94" s="433"/>
+      <c r="D94" s="433"/>
+      <c r="E94" s="433"/>
+      <c r="F94" s="429"/>
+      <c r="G94" s="426"/>
+      <c r="H94" s="426"/>
+      <c r="I94" s="426"/>
+      <c r="J94" s="426"/>
+      <c r="K94" s="426"/>
+      <c r="L94" s="426"/>
+      <c r="M94" s="426"/>
+      <c r="N94" s="426"/>
+      <c r="O94" s="426"/>
+      <c r="P94" s="426"/>
+      <c r="Q94" s="426"/>
+      <c r="R94" s="426"/>
+      <c r="S94" s="426"/>
+      <c r="T94" s="426"/>
+      <c r="U94" s="426"/>
+      <c r="V94" s="426"/>
+      <c r="W94" s="426"/>
+      <c r="X94" s="426"/>
+      <c r="Y94" s="437"/>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="436"/>
+      <c r="B95" s="435"/>
+      <c r="C95" s="433"/>
+      <c r="D95" s="433"/>
+      <c r="E95" s="433"/>
+      <c r="F95" s="429"/>
+      <c r="G95" s="426"/>
+      <c r="H95" s="426"/>
+      <c r="I95" s="426"/>
+      <c r="J95" s="426"/>
+      <c r="K95" s="426"/>
+      <c r="L95" s="426"/>
+      <c r="M95" s="426"/>
+      <c r="N95" s="426"/>
+      <c r="O95" s="426"/>
+      <c r="P95" s="426"/>
+      <c r="Q95" s="426"/>
+      <c r="R95" s="426"/>
+      <c r="S95" s="426"/>
+      <c r="T95" s="426"/>
+      <c r="U95" s="426"/>
+      <c r="V95" s="426"/>
+      <c r="W95" s="426"/>
+      <c r="X95" s="426"/>
+      <c r="Y95" s="437"/>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="436"/>
+      <c r="B96" s="435"/>
+      <c r="C96" s="433"/>
+      <c r="D96" s="433"/>
+      <c r="E96" s="433"/>
+      <c r="F96" s="429"/>
+      <c r="G96" s="426"/>
+      <c r="H96" s="426"/>
+      <c r="I96" s="426"/>
+      <c r="J96" s="426"/>
+      <c r="K96" s="426"/>
+      <c r="L96" s="426"/>
+      <c r="M96" s="426"/>
+      <c r="N96" s="426"/>
+      <c r="O96" s="426"/>
+      <c r="P96" s="426"/>
+      <c r="Q96" s="426"/>
+      <c r="R96" s="426"/>
+      <c r="S96" s="426"/>
+      <c r="T96" s="426"/>
+      <c r="U96" s="426"/>
+      <c r="V96" s="426"/>
+      <c r="W96" s="426"/>
+      <c r="X96" s="426"/>
+      <c r="Y96" s="426"/>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="436"/>
+      <c r="B97" s="435"/>
+      <c r="C97" s="433"/>
+      <c r="D97" s="433"/>
+      <c r="E97" s="433"/>
+      <c r="F97" s="429"/>
+      <c r="G97" s="426"/>
+      <c r="H97" s="426"/>
+      <c r="I97" s="426"/>
+      <c r="J97" s="426"/>
+      <c r="K97" s="426"/>
+      <c r="L97" s="426"/>
+      <c r="M97" s="426"/>
+      <c r="N97" s="426"/>
+      <c r="O97" s="426"/>
+      <c r="P97" s="426"/>
+      <c r="Q97" s="426"/>
+      <c r="R97" s="426"/>
+      <c r="S97" s="426"/>
+      <c r="T97" s="426"/>
+      <c r="U97" s="426"/>
+      <c r="V97" s="426"/>
+      <c r="W97" s="426"/>
+      <c r="X97" s="426"/>
+      <c r="Y97" s="437"/>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="436"/>
+      <c r="B98" s="435"/>
+      <c r="C98" s="433"/>
+      <c r="D98" s="433"/>
+      <c r="E98" s="433"/>
+      <c r="F98" s="429"/>
+      <c r="G98" s="426"/>
+      <c r="H98" s="426"/>
+      <c r="I98" s="426"/>
+      <c r="J98" s="426"/>
+      <c r="K98" s="426"/>
+      <c r="L98" s="426"/>
+      <c r="M98" s="426"/>
+      <c r="N98" s="426"/>
+      <c r="O98" s="426"/>
+      <c r="P98" s="426"/>
+      <c r="Q98" s="426"/>
+      <c r="R98" s="426"/>
+      <c r="S98" s="426"/>
+      <c r="T98" s="426"/>
+      <c r="U98" s="426"/>
+      <c r="V98" s="426"/>
+      <c r="W98" s="426"/>
+      <c r="X98" s="426"/>
+      <c r="Y98" s="437"/>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="436"/>
+      <c r="B99" s="435"/>
+      <c r="C99" s="433"/>
+      <c r="D99" s="433"/>
+      <c r="E99" s="433"/>
+      <c r="F99" s="429"/>
+      <c r="G99" s="426"/>
+      <c r="H99" s="426"/>
+      <c r="I99" s="426"/>
+      <c r="J99" s="426"/>
+      <c r="K99" s="426"/>
+      <c r="L99" s="426"/>
+      <c r="M99" s="426"/>
+      <c r="N99" s="426"/>
+      <c r="O99" s="426"/>
+      <c r="P99" s="426"/>
+      <c r="Q99" s="426"/>
+      <c r="R99" s="426"/>
+      <c r="S99" s="426"/>
+      <c r="T99" s="426"/>
+      <c r="U99" s="426"/>
+      <c r="V99" s="426"/>
+      <c r="W99" s="426"/>
+      <c r="X99" s="426"/>
+      <c r="Y99" s="426"/>
+    </row>
+    <row r="100" spans="1:25" s="439" customFormat="1">
+      <c r="A100" s="436"/>
+      <c r="B100" s="435"/>
+      <c r="C100" s="433"/>
+      <c r="D100" s="433"/>
+      <c r="E100" s="433"/>
+      <c r="F100" s="438"/>
+      <c r="G100" s="437"/>
+      <c r="H100" s="437"/>
+      <c r="I100" s="426"/>
+      <c r="J100" s="426"/>
+      <c r="K100" s="437"/>
+      <c r="L100" s="426"/>
+      <c r="M100" s="437"/>
+      <c r="N100" s="437"/>
+      <c r="O100" s="426"/>
+      <c r="P100" s="437"/>
+      <c r="Q100" s="437"/>
+      <c r="R100" s="437"/>
+      <c r="S100" s="426"/>
+      <c r="T100" s="426"/>
+      <c r="U100" s="426"/>
+      <c r="V100" s="426"/>
+      <c r="W100" s="426"/>
+      <c r="X100" s="426"/>
+      <c r="Y100" s="426"/>
+    </row>
+    <row r="101" spans="1:25" s="439" customFormat="1">
+      <c r="A101" s="436"/>
+      <c r="B101" s="435"/>
+      <c r="C101" s="433"/>
+      <c r="D101" s="433"/>
+      <c r="E101" s="433"/>
+      <c r="F101" s="438"/>
+      <c r="G101" s="437"/>
+      <c r="H101" s="437"/>
+      <c r="I101" s="426"/>
+      <c r="J101" s="426"/>
+      <c r="K101" s="437"/>
+      <c r="L101" s="426"/>
+      <c r="M101" s="437"/>
+      <c r="N101" s="437"/>
+      <c r="O101" s="426"/>
+      <c r="P101" s="437"/>
+      <c r="Q101" s="437"/>
+      <c r="R101" s="437"/>
+      <c r="S101" s="426"/>
+      <c r="T101" s="426"/>
+      <c r="U101" s="426"/>
+      <c r="V101" s="426"/>
+      <c r="W101" s="426"/>
+      <c r="X101" s="426"/>
+      <c r="Y101" s="426"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="436"/>
+      <c r="B102" s="435"/>
+      <c r="C102" s="433"/>
+      <c r="D102" s="433"/>
+      <c r="E102" s="433"/>
+      <c r="F102" s="429"/>
+      <c r="G102" s="426"/>
+      <c r="H102" s="426"/>
+      <c r="I102" s="426"/>
+      <c r="J102" s="426"/>
+      <c r="K102" s="426"/>
+      <c r="L102" s="426"/>
+      <c r="M102" s="426"/>
+      <c r="N102" s="426"/>
+      <c r="O102" s="426"/>
+      <c r="P102" s="426"/>
+      <c r="Q102" s="426"/>
+      <c r="R102" s="426"/>
+      <c r="S102" s="426"/>
+      <c r="T102" s="426"/>
+      <c r="U102" s="426"/>
+      <c r="V102" s="426"/>
+      <c r="W102" s="426"/>
+      <c r="X102" s="426"/>
+      <c r="Y102" s="426"/>
+    </row>
+    <row r="103" spans="1:25" s="439" customFormat="1">
+      <c r="A103" s="436"/>
+      <c r="B103" s="435"/>
+      <c r="C103" s="433"/>
+      <c r="D103" s="433"/>
+      <c r="E103" s="433"/>
+      <c r="F103" s="438"/>
+      <c r="G103" s="437"/>
+      <c r="H103" s="437"/>
+      <c r="I103" s="426"/>
+      <c r="J103" s="426"/>
+      <c r="K103" s="437"/>
+      <c r="L103" s="426"/>
+      <c r="M103" s="437"/>
+      <c r="N103" s="437"/>
+      <c r="O103" s="437"/>
+      <c r="P103" s="437"/>
+      <c r="Q103" s="437"/>
+      <c r="R103" s="437"/>
+      <c r="S103" s="426"/>
+      <c r="T103" s="426"/>
+      <c r="U103" s="426"/>
+      <c r="V103" s="426"/>
+      <c r="W103" s="426"/>
+      <c r="X103" s="426"/>
+      <c r="Y103" s="437"/>
+    </row>
+    <row r="104" spans="1:25" s="439" customFormat="1">
+      <c r="A104" s="436"/>
+      <c r="B104" s="435"/>
+      <c r="C104" s="433"/>
+      <c r="D104" s="433"/>
+      <c r="E104" s="433"/>
+      <c r="F104" s="438"/>
+      <c r="G104" s="437"/>
+      <c r="H104" s="437"/>
+      <c r="I104" s="426"/>
+      <c r="J104" s="426"/>
+      <c r="K104" s="437"/>
+      <c r="L104" s="426"/>
+      <c r="M104" s="437"/>
+      <c r="N104" s="426"/>
+      <c r="O104" s="437"/>
+      <c r="P104" s="437"/>
+      <c r="Q104" s="437"/>
+      <c r="R104" s="437"/>
+      <c r="S104" s="426"/>
+      <c r="T104" s="426"/>
+      <c r="U104" s="426"/>
+      <c r="V104" s="426"/>
+      <c r="W104" s="426"/>
+      <c r="X104" s="426"/>
+      <c r="Y104" s="437"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="436"/>
+      <c r="B105" s="435"/>
+      <c r="C105" s="433"/>
+      <c r="D105" s="433"/>
+      <c r="E105" s="433"/>
+      <c r="F105" s="429"/>
+      <c r="G105" s="426"/>
+      <c r="H105" s="426"/>
+      <c r="I105" s="426"/>
+      <c r="J105" s="426"/>
+      <c r="K105" s="426"/>
+      <c r="L105" s="426"/>
+      <c r="M105" s="426"/>
+      <c r="N105" s="426"/>
+      <c r="O105" s="426"/>
+      <c r="P105" s="426"/>
+      <c r="Q105" s="426"/>
+      <c r="R105" s="426"/>
+      <c r="S105" s="426"/>
+      <c r="T105" s="426"/>
+      <c r="U105" s="426"/>
+      <c r="V105" s="426"/>
+      <c r="W105" s="426"/>
+      <c r="X105" s="426"/>
+      <c r="Y105" s="440"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="436"/>
+      <c r="B106" s="435"/>
+      <c r="C106" s="433"/>
+      <c r="D106" s="433"/>
+      <c r="E106" s="433"/>
+      <c r="F106" s="429"/>
+      <c r="G106" s="426"/>
+      <c r="H106" s="426"/>
+      <c r="I106" s="426"/>
+      <c r="J106" s="426"/>
+      <c r="K106" s="426"/>
+      <c r="L106" s="426"/>
+      <c r="M106" s="426"/>
+      <c r="N106" s="426"/>
+      <c r="O106" s="426"/>
+      <c r="P106" s="426"/>
+      <c r="Q106" s="426"/>
+      <c r="R106" s="426"/>
+      <c r="S106" s="426"/>
+      <c r="T106" s="426"/>
+      <c r="U106" s="426"/>
+      <c r="V106" s="426"/>
+      <c r="W106" s="426"/>
+      <c r="X106" s="426"/>
+      <c r="Y106" s="440"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="436"/>
+      <c r="B107" s="435"/>
+      <c r="C107" s="433"/>
+      <c r="D107" s="433"/>
+      <c r="E107" s="433"/>
+      <c r="F107" s="429"/>
+      <c r="G107" s="426"/>
+      <c r="H107" s="426"/>
+      <c r="I107" s="426"/>
+      <c r="J107" s="426"/>
+      <c r="K107" s="426"/>
+      <c r="L107" s="426"/>
+      <c r="M107" s="426"/>
+      <c r="N107" s="426"/>
+      <c r="O107" s="426"/>
+      <c r="P107" s="426"/>
+      <c r="Q107" s="426"/>
+      <c r="R107" s="426"/>
+      <c r="S107" s="426"/>
+      <c r="T107" s="426"/>
+      <c r="U107" s="426"/>
+      <c r="V107" s="426"/>
+      <c r="W107" s="426"/>
+      <c r="X107" s="426"/>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="436"/>
+      <c r="B108" s="435"/>
+      <c r="C108" s="433"/>
+      <c r="D108" s="433"/>
+      <c r="E108" s="433"/>
+      <c r="F108" s="429"/>
+      <c r="G108" s="426"/>
+      <c r="H108" s="426"/>
+      <c r="I108" s="426"/>
+      <c r="J108" s="426"/>
+      <c r="K108" s="426"/>
+      <c r="L108" s="426"/>
+      <c r="M108" s="426"/>
+      <c r="N108" s="426"/>
+      <c r="O108" s="426"/>
+      <c r="P108" s="426"/>
+      <c r="Q108" s="426"/>
+      <c r="R108" s="426"/>
+      <c r="S108" s="426"/>
+      <c r="T108" s="426"/>
+      <c r="U108" s="426"/>
+      <c r="V108" s="426"/>
+      <c r="W108" s="426"/>
+      <c r="X108" s="426"/>
+    </row>
+    <row r="109" spans="1:25" s="439" customFormat="1">
+      <c r="A109" s="436"/>
+      <c r="B109" s="436"/>
+      <c r="C109" s="421"/>
+      <c r="D109" s="421"/>
+      <c r="E109" s="421"/>
+      <c r="F109" s="438"/>
+      <c r="G109" s="426"/>
+      <c r="H109" s="426"/>
+      <c r="I109" s="426"/>
+      <c r="J109" s="426"/>
+      <c r="K109" s="426"/>
+      <c r="L109" s="426"/>
+      <c r="M109" s="426"/>
+      <c r="N109" s="426"/>
+      <c r="O109" s="437"/>
+      <c r="P109" s="437"/>
+      <c r="Q109" s="437"/>
+      <c r="R109" s="437"/>
+      <c r="S109" s="426"/>
+      <c r="T109" s="426"/>
+      <c r="U109" s="426"/>
+      <c r="V109" s="426"/>
+      <c r="W109" s="426"/>
+      <c r="X109" s="426"/>
+      <c r="Y109" s="441"/>
+    </row>
+    <row r="110" spans="1:25" s="439" customFormat="1">
+      <c r="A110" s="436"/>
+      <c r="B110" s="435"/>
+      <c r="C110" s="433"/>
+      <c r="D110" s="433"/>
+      <c r="E110" s="433"/>
+      <c r="F110" s="438"/>
+      <c r="G110" s="437"/>
+      <c r="H110" s="437"/>
+      <c r="I110" s="426"/>
+      <c r="J110" s="426"/>
+      <c r="K110" s="437"/>
+      <c r="L110" s="426"/>
+      <c r="M110" s="437"/>
+      <c r="N110" s="437"/>
+      <c r="O110" s="437"/>
+      <c r="P110" s="437"/>
+      <c r="Q110" s="437"/>
+      <c r="R110" s="437"/>
+      <c r="S110" s="426"/>
+      <c r="T110" s="426"/>
+      <c r="U110" s="426"/>
+      <c r="V110" s="426"/>
+      <c r="W110" s="426"/>
+      <c r="X110" s="426"/>
+      <c r="Y110" s="441"/>
+    </row>
+    <row r="111" spans="1:25" s="439" customFormat="1">
+      <c r="A111" s="442"/>
+      <c r="B111" s="443"/>
+      <c r="C111" s="443"/>
+      <c r="D111" s="443"/>
+      <c r="E111" s="443"/>
+      <c r="F111" s="440"/>
+      <c r="G111" s="440"/>
+      <c r="H111" s="440"/>
+      <c r="I111" s="441"/>
+      <c r="J111" s="441"/>
+      <c r="K111" s="440"/>
+      <c r="L111" s="441"/>
+      <c r="M111" s="440"/>
+      <c r="N111" s="440"/>
+      <c r="O111" s="440"/>
+      <c r="P111" s="440"/>
+      <c r="Q111" s="440"/>
+      <c r="R111" s="440"/>
+      <c r="S111" s="441"/>
+      <c r="T111" s="441"/>
+      <c r="U111" s="441"/>
+      <c r="V111" s="441"/>
+      <c r="W111" s="441"/>
+      <c r="X111" s="441"/>
+      <c r="Y111" s="441"/>
+    </row>
+    <row r="112" spans="1:25" s="439" customFormat="1">
+      <c r="A112" s="442"/>
+      <c r="B112" s="443"/>
+      <c r="C112" s="443"/>
+      <c r="D112" s="443"/>
+      <c r="E112" s="443"/>
+      <c r="F112" s="440"/>
+      <c r="G112" s="440"/>
+      <c r="H112" s="440"/>
+      <c r="I112" s="441"/>
+      <c r="J112" s="441"/>
+      <c r="K112" s="440"/>
+      <c r="L112" s="441"/>
+      <c r="M112" s="440"/>
+      <c r="N112" s="440"/>
+      <c r="O112" s="440"/>
+      <c r="P112" s="440"/>
+      <c r="Q112" s="440"/>
+      <c r="R112" s="440"/>
+      <c r="S112" s="441"/>
+      <c r="T112" s="441"/>
+      <c r="U112" s="441"/>
+      <c r="V112" s="441"/>
+      <c r="W112" s="441"/>
+      <c r="X112" s="441"/>
+      <c r="Y112" s="441"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="442"/>
+      <c r="B114" s="442"/>
+      <c r="C114" s="442"/>
+      <c r="D114" s="442"/>
+      <c r="E114" s="442"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X229"/>
   <sheetViews>

--- a/AutoTestSystem/Config/Snowbird.xlsx
+++ b/AutoTestSystem/Config/Snowbird.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7800" tabRatio="501" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7800" tabRatio="501" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MBLT" sheetId="90" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13428" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13428" uniqueCount="1884">
   <si>
     <t>SeqName</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -6764,6 +6764,14 @@
   <si>
     <t xml:space="preserve">LEDBootupstatus
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI_TX_RADIO_TEMP_F5250_EHT_BW160_MCS13_C0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI_TX_RADIO_TEMP_F5745_EHT_BW20_MCS13_C0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9261,12 +9269,6 @@
     <xf numFmtId="49" fontId="58" fillId="35" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -9276,6 +9278,12 @@
     </xf>
     <xf numFmtId="49" fontId="40" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -22347,7 +22355,7 @@
       <c r="H8" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="435"/>
+      <c r="I8" s="433"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
@@ -22482,7 +22490,7 @@
       <c r="B11" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="434" t="s">
+      <c r="C11" s="432" t="s">
         <v>413</v>
       </c>
       <c r="D11" s="179"/>
@@ -22695,7 +22703,7 @@
       <c r="Z15" s="200"/>
     </row>
     <row r="16" spans="1:26" s="71" customFormat="1" ht="14.65" thickBot="1">
-      <c r="A16" s="436" t="s">
+      <c r="A16" s="434" t="s">
         <v>197</v>
       </c>
       <c r="B16" s="99" t="s">
@@ -22796,7 +22804,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="437" customFormat="1" ht="14.65" thickBot="1">
+    <row r="18" spans="1:26" s="435" customFormat="1" ht="14.65" thickBot="1">
       <c r="A18" s="84" t="s">
         <v>81</v>
       </c>
@@ -29338,11 +29346,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z327"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C188" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.33203125" defaultRowHeight="14.25"/>
@@ -36946,44 +36954,44 @@
         <v>111</v>
       </c>
     </row>
-    <row r="204" spans="2:15" s="237" customFormat="1" ht="13.9">
-      <c r="B204" s="237" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C204" s="237" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D204" s="237" t="s">
-        <v>263</v>
-      </c>
-      <c r="E204" s="237" t="s">
+    <row r="204" spans="2:15" s="375" customFormat="1" ht="13.9">
+      <c r="B204" s="375" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C204" s="375" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D204" s="375" t="s">
+        <v>263</v>
+      </c>
+      <c r="E204" s="375" t="s">
         <v>1235</v>
       </c>
-      <c r="F204" s="237" t="s">
-        <v>345</v>
-      </c>
-      <c r="G204" s="237">
-        <v>0</v>
-      </c>
-      <c r="H204" s="237">
-        <v>3</v>
-      </c>
-      <c r="I204" s="237" t="s">
+      <c r="F204" s="375" t="s">
+        <v>345</v>
+      </c>
+      <c r="G204" s="375">
+        <v>0</v>
+      </c>
+      <c r="H204" s="375">
+        <v>3</v>
+      </c>
+      <c r="I204" s="375" t="s">
         <v>105</v>
       </c>
-      <c r="J204" s="237">
-        <v>0</v>
-      </c>
-      <c r="N204" s="237">
+      <c r="J204" s="375">
+        <v>0</v>
+      </c>
+      <c r="N204" s="375">
         <v>5745</v>
       </c>
-      <c r="O204" s="237" t="s">
+      <c r="O204" s="375" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="205" spans="2:15" s="237" customFormat="1" ht="13.9">
       <c r="B205" s="237" t="s">
-        <v>1650</v>
+        <v>1882</v>
       </c>
       <c r="C205" s="237" t="s">
         <v>1650</v>
@@ -63888,8 +63896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="U23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
@@ -78440,7 +78448,7 @@
       <c r="Z17" s="393"/>
     </row>
     <row r="18" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A18" s="433" t="s">
+      <c r="A18" s="436" t="s">
         <v>1451</v>
       </c>
       <c r="B18" s="417" t="s">
@@ -78502,7 +78510,7 @@
       <c r="Z18" s="417"/>
     </row>
     <row r="19" spans="1:26" s="229" customFormat="1">
-      <c r="A19" s="432"/>
+      <c r="A19" s="437"/>
       <c r="B19" s="417" t="s">
         <v>1454</v>
       </c>
@@ -78562,7 +78570,7 @@
       <c r="Z19" s="417"/>
     </row>
     <row r="20" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A20" s="432"/>
+      <c r="A20" s="437"/>
       <c r="B20" s="417" t="s">
         <v>1455</v>
       </c>
@@ -78622,7 +78630,7 @@
       <c r="Z20" s="417"/>
     </row>
     <row r="21" spans="1:26" s="229" customFormat="1">
-      <c r="A21" s="432"/>
+      <c r="A21" s="437"/>
       <c r="B21" s="417" t="s">
         <v>1456</v>
       </c>
@@ -78682,7 +78690,7 @@
       <c r="Z21" s="417"/>
     </row>
     <row r="22" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A22" s="432"/>
+      <c r="A22" s="437"/>
       <c r="B22" s="417" t="s">
         <v>1457</v>
       </c>
@@ -78742,7 +78750,7 @@
       <c r="Z22" s="417"/>
     </row>
     <row r="23" spans="1:26" s="229" customFormat="1">
-      <c r="A23" s="432"/>
+      <c r="A23" s="437"/>
       <c r="B23" s="417" t="s">
         <v>1458</v>
       </c>
@@ -78802,7 +78810,7 @@
       <c r="Z23" s="417"/>
     </row>
     <row r="24" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A24" s="432"/>
+      <c r="A24" s="437"/>
       <c r="B24" s="417" t="s">
         <v>1459</v>
       </c>
@@ -78862,7 +78870,7 @@
       <c r="Z24" s="417"/>
     </row>
     <row r="25" spans="1:26" s="229" customFormat="1">
-      <c r="A25" s="432"/>
+      <c r="A25" s="437"/>
       <c r="B25" s="417" t="s">
         <v>1460</v>
       </c>
@@ -78922,7 +78930,7 @@
       <c r="Z25" s="417"/>
     </row>
     <row r="26" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A26" s="432"/>
+      <c r="A26" s="437"/>
       <c r="B26" s="417" t="s">
         <v>1461</v>
       </c>
@@ -78982,7 +78990,7 @@
       <c r="Z26" s="417"/>
     </row>
     <row r="27" spans="1:26" s="229" customFormat="1">
-      <c r="A27" s="432"/>
+      <c r="A27" s="437"/>
       <c r="B27" s="417" t="s">
         <v>1462</v>
       </c>
@@ -79042,7 +79050,7 @@
       <c r="Z27" s="417"/>
     </row>
     <row r="28" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A28" s="432"/>
+      <c r="A28" s="437"/>
       <c r="B28" s="417" t="s">
         <v>1463</v>
       </c>
@@ -79102,7 +79110,7 @@
       <c r="Z28" s="417"/>
     </row>
     <row r="29" spans="1:26" s="229" customFormat="1">
-      <c r="A29" s="432"/>
+      <c r="A29" s="437"/>
       <c r="B29" s="417" t="s">
         <v>1464</v>
       </c>
@@ -79162,7 +79170,7 @@
       <c r="Z29" s="417"/>
     </row>
     <row r="30" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A30" s="432"/>
+      <c r="A30" s="437"/>
       <c r="B30" s="417" t="s">
         <v>1465</v>
       </c>
@@ -79222,7 +79230,7 @@
       <c r="Z30" s="417"/>
     </row>
     <row r="31" spans="1:26" s="229" customFormat="1">
-      <c r="A31" s="432"/>
+      <c r="A31" s="437"/>
       <c r="B31" s="417" t="s">
         <v>1466</v>
       </c>
@@ -79282,7 +79290,7 @@
       <c r="Z31" s="417"/>
     </row>
     <row r="32" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A32" s="432"/>
+      <c r="A32" s="437"/>
       <c r="B32" s="417" t="s">
         <v>1467</v>
       </c>
@@ -79342,7 +79350,7 @@
       <c r="Z32" s="417"/>
     </row>
     <row r="33" spans="1:26" s="229" customFormat="1">
-      <c r="A33" s="432"/>
+      <c r="A33" s="437"/>
       <c r="B33" s="417" t="s">
         <v>1468</v>
       </c>
@@ -79402,7 +79410,7 @@
       <c r="Z33" s="417"/>
     </row>
     <row r="34" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A34" s="432"/>
+      <c r="A34" s="437"/>
       <c r="B34" s="417" t="s">
         <v>1469</v>
       </c>
@@ -79462,7 +79470,7 @@
       <c r="Z34" s="417"/>
     </row>
     <row r="35" spans="1:26" s="229" customFormat="1">
-      <c r="A35" s="432"/>
+      <c r="A35" s="437"/>
       <c r="B35" s="417" t="s">
         <v>1470</v>
       </c>
@@ -79522,7 +79530,7 @@
       <c r="Z35" s="417"/>
     </row>
     <row r="36" spans="1:26" s="229" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A36" s="432"/>
+      <c r="A36" s="437"/>
       <c r="B36" s="417" t="s">
         <v>1471</v>
       </c>
@@ -79582,7 +79590,7 @@
       <c r="Z36" s="417"/>
     </row>
     <row r="37" spans="1:26" s="229" customFormat="1">
-      <c r="A37" s="432"/>
+      <c r="A37" s="437"/>
       <c r="B37" s="417" t="s">
         <v>1472</v>
       </c>
